--- a/mock/Tempate01.xlsx
+++ b/mock/Tempate01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C704F6-8F9F-4027-928B-78831C2A7856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF77D2D-B738-46B8-9614-5E63D49512F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="750" windowWidth="25725" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26910" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tempalte" sheetId="4" r:id="rId1"/>
@@ -591,10 +591,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00\%"/>
     <numFmt numFmtId="165" formatCode="0;\-0;;@"/>
     <numFmt numFmtId="166" formatCode="0;\-0;;@\,"/>
+    <numFmt numFmtId="167" formatCode="0.00\\%"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1012,7 +1013,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1161,9 +1162,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1186,9 +1184,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,7 +1198,6 @@
     <xf numFmtId="1" fontId="4" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1216,9 +1210,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1237,320 +1228,320 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1609,6 +1600,51 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1219200" y="200025"/>
+          <a:ext cx="2019761" cy="323673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2019761" cy="323673"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007662F9-3375-4758-98C5-9DD7880C661B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="342900"/>
           <a:ext cx="2019761" cy="323673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1962,973 +1998,1002 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D125A0-D8A8-4519-B166-29E66ADEE5DA}">
-  <dimension ref="B1:S45"/>
+  <dimension ref="B1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:H36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="66" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="66" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="19" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="66"/>
-    <col min="8" max="8" width="39.7109375" style="66" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" style="66" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="66" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="66" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="66" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="66" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="66" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="66" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="66" customWidth="1"/>
-    <col min="18" max="18" width="26.42578125" style="66" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="66"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="26.25">
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="112" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="105" t="s">
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
     </row>
     <row r="2" spans="2:19" ht="26.25">
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="105" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
     </row>
     <row r="3" spans="2:19" ht="26.25">
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="105" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
     </row>
     <row r="6" spans="2:19" ht="15">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="108" t="s">
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="108" t="s">
+      <c r="F7" s="149"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="106" t="s">
+      <c r="I7" s="150"/>
+      <c r="J7" s="147" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="108" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="108" t="s">
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="106" t="s">
+      <c r="I8" s="150"/>
+      <c r="J8" s="147" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
     </row>
     <row r="10" spans="2:19" ht="15">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
     </row>
     <row r="11" spans="2:19" ht="22.5" customHeight="1">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116" t="s">
+      <c r="C11" s="142"/>
+      <c r="D11" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="117" t="s">
+      <c r="E11" s="143"/>
+      <c r="F11" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="136" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="103" t="s">
+      <c r="C13" s="137"/>
+      <c r="D13" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="136" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="97" t="s">
+      <c r="C14" s="137"/>
+      <c r="D14" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="97" t="s">
+      <c r="C15" s="137"/>
+      <c r="D15" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="97" t="s">
+      <c r="C16" s="137"/>
+      <c r="D16" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
     </row>
     <row r="18" spans="2:18" ht="15">
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
     </row>
     <row r="19" spans="2:18" ht="15">
       <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="119" t="s">
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="119"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52" t="s">
+      <c r="G19" s="135"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="53" t="s">
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="53"/>
+      <c r="M19" s="52"/>
     </row>
     <row r="20" spans="2:18" ht="23.25" customHeight="1">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="104" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="92" t="s">
+      <c r="G20" s="155"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="71" t="e">
-        <f>I20*F20</f>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="93" t="e">
+        <f>I20*F20/1000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="59"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="2:18" ht="22.5" customHeight="1">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="104" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="104"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="92" t="s">
+      <c r="G21" s="155"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="71" t="e">
-        <f>I21*F21</f>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="93" t="e">
+        <f>I21*F21/1000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="59"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" spans="2:18" ht="21.75" customHeight="1">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="104" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="104"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="92" t="s">
+      <c r="G22" s="155"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="71" t="e">
-        <f>I22*F22</f>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="93" t="e">
+        <f>I22*F22/1000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="59"/>
+      <c r="M22" s="58"/>
     </row>
     <row r="23" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="104" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="104"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="92" t="s">
+      <c r="G23" s="155"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="71" t="e">
-        <f>I23*F23</f>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="93" t="e">
+        <f>I23*F23/1000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="59"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" spans="2:18" ht="21" customHeight="1">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="104" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="104"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="92" t="s">
+      <c r="G24" s="155"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="71" t="e">
-        <f>I24*F24</f>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="93" t="e">
+        <f>I24*F24/1000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="59"/>
+      <c r="M24" s="58"/>
     </row>
     <row r="25" spans="2:18" ht="15">
       <c r="B25" s="122" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="123"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="93">
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="92">
         <f>SUM(I20:I24)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="62"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="62" t="e">
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="94" t="e">
         <f>SUM(L20:L24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="64"/>
+      <c r="M25" s="62"/>
     </row>
     <row r="27" spans="2:18" ht="15">
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="113"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="124"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="124"/>
     </row>
     <row r="28" spans="2:18" ht="15">
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="128" t="s">
+      <c r="D28" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="125" t="s">
+      <c r="E28" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="125" t="s">
+      <c r="F28" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="125" t="s">
+      <c r="G28" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="125" t="s">
+      <c r="H28" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="125" t="s">
+      <c r="I28" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="125" t="s">
+      <c r="J28" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="125" t="s">
+      <c r="K28" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="133" t="s">
+      <c r="L28" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="96" t="s">
+      <c r="M28" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="131" t="s">
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="120" t="s">
+      <c r="Q28" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="120" t="s">
+      <c r="R28" s="161" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="60">
-      <c r="B29" s="125"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="65" t="s">
+      <c r="B29" s="157"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="N29" s="65" t="s">
+      <c r="N29" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="O29" s="65" t="s">
+      <c r="O29" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="165"/>
     </row>
     <row r="30" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="182" t="s">
+      <c r="C30" s="166"/>
+      <c r="D30" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="89" t="s">
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="R30" s="88"/>
-    </row>
-    <row r="31" spans="2:18" s="178" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B31" s="74" t="s">
+      <c r="R30" s="79"/>
+    </row>
+    <row r="31" spans="2:18" s="85" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B31" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="176"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="176"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="176" t="s">
+      <c r="E31" s="83"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="R31" s="176"/>
-    </row>
-    <row r="32" spans="2:18" s="178" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B32" s="91" t="s">
+      <c r="R31" s="83"/>
+    </row>
+    <row r="32" spans="2:18" s="85" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B32" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="179" t="s">
+      <c r="C32" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="180" t="s">
+      <c r="D32" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="179" t="s">
+      <c r="E32" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="181" t="s">
+      <c r="F32" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179" t="s">
+      <c r="G32" s="86"/>
+      <c r="H32" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="I32" s="179" t="s">
+      <c r="I32" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179" t="s">
+      <c r="J32" s="86"/>
+      <c r="K32" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="179" t="s">
+      <c r="L32" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="M32" s="179"/>
-      <c r="N32" s="179" t="s">
+      <c r="M32" s="86"/>
+      <c r="N32" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="O32" s="179" t="s">
+      <c r="O32" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="P32" s="179" t="s">
+      <c r="P32" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="Q32" s="179" t="s">
+      <c r="Q32" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="R32" s="179"/>
+      <c r="R32" s="86"/>
     </row>
     <row r="33" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
     </row>
     <row r="34" spans="2:18" ht="15">
-      <c r="B34" s="153" t="s">
+      <c r="B34" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="154"/>
-      <c r="Q34" s="154"/>
-      <c r="R34" s="154"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="167"/>
+      <c r="Q34" s="167"/>
+      <c r="R34" s="167"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1">
-      <c r="B35" s="150" t="s">
+      <c r="B35" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="151" t="s">
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="152"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="168"/>
     </row>
     <row r="36" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="157"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="157"/>
-      <c r="P36" s="157"/>
-      <c r="Q36" s="157"/>
-      <c r="R36" s="157"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="116"/>
+      <c r="R36" s="116"/>
     </row>
     <row r="37" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="159"/>
-      <c r="K37" s="159"/>
-      <c r="L37" s="159"/>
-      <c r="M37" s="159"/>
-      <c r="N37" s="159"/>
-      <c r="O37" s="159"/>
-      <c r="P37" s="159"/>
-      <c r="Q37" s="159"/>
-      <c r="R37" s="159"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="108"/>
     </row>
     <row r="38" spans="2:18" ht="28.5" customHeight="1">
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="155"/>
-      <c r="P38" s="155"/>
-      <c r="Q38" s="155"/>
-      <c r="R38" s="155"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
+      <c r="R38" s="110"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="77"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="73"/>
     </row>
     <row r="40" spans="2:18" ht="15">
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="154"/>
-      <c r="K40" s="154"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="154"/>
-      <c r="N40" s="154"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="154"/>
-      <c r="R40" s="154"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="167"/>
+      <c r="O40" s="167"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="167"/>
     </row>
     <row r="41" spans="2:18" ht="15">
-      <c r="B41" s="141" t="s">
+      <c r="B41" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="138" t="s">
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="141" t="s">
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
+      <c r="K41" s="171"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="N41" s="142"/>
-      <c r="O41" s="142"/>
-      <c r="P41" s="142"/>
-      <c r="Q41" s="142"/>
-      <c r="R41" s="143"/>
+      <c r="N41" s="169"/>
+      <c r="O41" s="169"/>
+      <c r="P41" s="169"/>
+      <c r="Q41" s="169"/>
+      <c r="R41" s="170"/>
     </row>
     <row r="42" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="82" t="s">
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="144" t="s">
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="N42" s="145"/>
-      <c r="O42" s="145"/>
-      <c r="P42" s="145"/>
-      <c r="Q42" s="145"/>
-      <c r="R42" s="146"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
+      <c r="Q42" s="173"/>
+      <c r="R42" s="174"/>
     </row>
     <row r="43" spans="2:18" ht="30" customHeight="1">
-      <c r="B43" s="83"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="148"/>
-      <c r="O43" s="148"/>
-      <c r="P43" s="148"/>
-      <c r="Q43" s="148"/>
-      <c r="R43" s="149"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="175"/>
+      <c r="O43" s="175"/>
+      <c r="P43" s="175"/>
+      <c r="Q43" s="175"/>
+      <c r="R43" s="176"/>
     </row>
     <row r="44" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B44" s="147" t="s">
+      <c r="B44" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="147" t="s">
+      <c r="C44" s="175"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="149"/>
-      <c r="M44" s="147" t="s">
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="N44" s="148"/>
-      <c r="O44" s="148"/>
-      <c r="P44" s="148"/>
-      <c r="Q44" s="148"/>
-      <c r="R44" s="149"/>
+      <c r="N44" s="175"/>
+      <c r="O44" s="175"/>
+      <c r="P44" s="175"/>
+      <c r="Q44" s="175"/>
+      <c r="R44" s="176"/>
     </row>
     <row r="45" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B45" s="135" t="s">
+      <c r="B45" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="135" t="s">
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="177"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="137"/>
-      <c r="M45" s="135" t="s">
+      <c r="I45" s="177"/>
+      <c r="J45" s="177"/>
+      <c r="K45" s="177"/>
+      <c r="L45" s="178"/>
+      <c r="M45" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
-      <c r="P45" s="136"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="137"/>
-    </row>
+      <c r="N45" s="177"/>
+      <c r="O45" s="177"/>
+      <c r="P45" s="177"/>
+      <c r="Q45" s="177"/>
+      <c r="R45" s="178"/>
+    </row>
+    <row r="49" s="1" customFormat="1"/>
+    <row r="50" s="1" customFormat="1"/>
+    <row r="51" s="1" customFormat="1"/>
+    <row r="52" s="1" customFormat="1"/>
+    <row r="53" s="1" customFormat="1"/>
+    <row r="54" s="1" customFormat="1"/>
+    <row r="55" s="1" customFormat="1"/>
+    <row r="56" s="1" customFormat="1"/>
+    <row r="57" s="1" customFormat="1"/>
+    <row r="58" s="1" customFormat="1"/>
+    <row r="59" s="1" customFormat="1"/>
+    <row r="60" s="1" customFormat="1"/>
+    <row r="61" s="1" customFormat="1"/>
+    <row r="62" s="1" customFormat="1"/>
+    <row r="63" s="1" customFormat="1"/>
+    <row r="64" s="1" customFormat="1"/>
+    <row r="65" s="1" customFormat="1"/>
+    <row r="66" s="1" customFormat="1"/>
+    <row r="67" s="1" customFormat="1"/>
+    <row r="68" s="1" customFormat="1"/>
+    <row r="69" s="1" customFormat="1"/>
+    <row r="70" s="1" customFormat="1"/>
+    <row r="71" s="1" customFormat="1"/>
+    <row r="72" s="1" customFormat="1"/>
+    <row r="73" s="1" customFormat="1"/>
+    <row r="74" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="M42:R42"/>
+    <mergeCell ref="M43:R43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="I38:R38"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="B34:R34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="I35:R35"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="I38:R38"/>
-    <mergeCell ref="B40:R40"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="I36:R36"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="I37:R37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="M42:R42"/>
-    <mergeCell ref="M43:R43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:P29"/>
     <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="R28:R29"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B27:R27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -2936,57 +3001,54 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="P28:P29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:M17"/>
     <mergeCell ref="B18:M18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="D1:N3"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:M12"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:M16"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:M14"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:N3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3029,286 +3091,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="112" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="105" t="s">
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="105" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="105" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
     <row r="6" spans="2:19" ht="15" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="108" t="s">
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="108" t="s">
+      <c r="F7" s="149"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="106" t="s">
+      <c r="I7" s="150"/>
+      <c r="J7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="108" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="108" t="s">
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="106" t="s">
+      <c r="I8" s="150"/>
+      <c r="J8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
     </row>
     <row r="10" spans="2:19" ht="15" customHeight="1">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
     </row>
     <row r="11" spans="2:19" ht="22.5" customHeight="1">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116" t="s">
+      <c r="C11" s="142"/>
+      <c r="D11" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="117" t="s">
+      <c r="E11" s="143"/>
+      <c r="F11" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="161" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="118" t="s">
+      <c r="C13" s="137"/>
+      <c r="D13" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="163" t="s">
+      <c r="C14" s="137"/>
+      <c r="D14" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="163" t="s">
+      <c r="C15" s="137"/>
+      <c r="D15" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
     </row>
     <row r="17" spans="2:18" ht="15">
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="119" t="s">
+      <c r="F18" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="119"/>
+      <c r="G18" s="135"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
       <c r="L18" s="5" t="s">
         <v>29</v>
       </c>
@@ -3321,10 +3383,10 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="164">
+      <c r="F19" s="121">
         <v>90.915999999999997</v>
       </c>
-      <c r="G19" s="164"/>
+      <c r="G19" s="121"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9">
         <v>80</v>
@@ -3344,10 +3406,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="164">
+      <c r="F20" s="121">
         <v>71.3125</v>
       </c>
-      <c r="G20" s="164"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9">
         <v>20</v>
@@ -3367,10 +3429,10 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="164">
+      <c r="F21" s="121">
         <v>5</v>
       </c>
-      <c r="G21" s="164"/>
+      <c r="G21" s="121"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9">
         <v>10</v>
@@ -3407,87 +3469,87 @@
     </row>
     <row r="23" spans="2:18" ht="18.75" customHeight="1"/>
     <row r="24" spans="2:18" ht="21" customHeight="1">
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="124"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1">
-      <c r="B25" s="166" t="s">
+      <c r="B25" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="128" t="s">
+      <c r="D25" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="126" t="s">
+      <c r="E25" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="126" t="s">
+      <c r="F25" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="126" t="s">
+      <c r="G25" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="126" t="s">
+      <c r="H25" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="126" t="s">
+      <c r="I25" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="126" t="s">
+      <c r="J25" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="126" t="s">
+      <c r="K25" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="167" t="s">
+      <c r="L25" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="165" t="s">
+      <c r="M25" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="169" t="s">
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="171" t="s">
+      <c r="Q25" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="R25" s="171" t="s">
+      <c r="R25" s="119" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1">
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="168"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="132"/>
       <c r="M26" s="22" t="s">
         <v>48</v>
       </c>
@@ -3497,15 +3559,15 @@
       <c r="O26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="172"/>
-      <c r="R26" s="172"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="173"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="23">
         <v>100</v>
       </c>
@@ -3558,19 +3620,19 @@
       </c>
     </row>
     <row r="29" spans="2:18" ht="60" customHeight="1">
-      <c r="B29" s="174">
+      <c r="B29" s="117">
         <v>1</v>
       </c>
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="175">
+      <c r="D29" s="118">
         <v>5</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="94">
+      <c r="F29" s="82">
         <v>50</v>
       </c>
       <c r="H29" s="36" t="s">
@@ -3599,9 +3661,9 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="30" customHeight="1">
-      <c r="B30" s="174"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="175"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="118"/>
       <c r="E30" s="36" t="s">
         <v>57</v>
       </c>
@@ -3744,13 +3806,13 @@
       </c>
     </row>
     <row r="35" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="174">
+      <c r="B35" s="117">
         <v>5</v>
       </c>
-      <c r="C35" s="174" t="s">
+      <c r="C35" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="175">
+      <c r="D35" s="118">
         <v>12</v>
       </c>
       <c r="E35" s="36" t="s">
@@ -3785,9 +3847,9 @@
       </c>
     </row>
     <row r="36" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="175"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="36" t="s">
         <v>68</v>
       </c>
@@ -3820,9 +3882,9 @@
       </c>
     </row>
     <row r="37" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="175"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="36" t="s">
         <v>70</v>
       </c>
@@ -3911,10 +3973,10 @@
       </c>
     </row>
     <row r="40" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="173" t="s">
+      <c r="B40" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="173"/>
+      <c r="C40" s="112"/>
       <c r="D40" s="23">
         <v>80</v>
       </c>
@@ -3967,13 +4029,13 @@
       </c>
     </row>
     <row r="42" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B42" s="174">
+      <c r="B42" s="117">
         <v>1</v>
       </c>
-      <c r="C42" s="174" t="s">
+      <c r="C42" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="175">
+      <c r="D42" s="118">
         <v>10</v>
       </c>
       <c r="E42" s="36" t="s">
@@ -4008,9 +4070,9 @@
       </c>
     </row>
     <row r="43" spans="2:18" ht="30" customHeight="1">
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="175"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="36" t="s">
         <v>79</v>
       </c>
@@ -4043,9 +4105,9 @@
       </c>
     </row>
     <row r="44" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="174"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="175"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="36" t="s">
         <v>82</v>
       </c>
@@ -4107,13 +4169,13 @@
       </c>
     </row>
     <row r="46" spans="2:18" ht="105.4" customHeight="1">
-      <c r="B46" s="174">
+      <c r="B46" s="117">
         <v>2</v>
       </c>
-      <c r="C46" s="174" t="s">
+      <c r="C46" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="175">
+      <c r="D46" s="118">
         <v>45</v>
       </c>
       <c r="E46" s="36" t="s">
@@ -4148,9 +4210,9 @@
       </c>
     </row>
     <row r="47" spans="2:18" ht="105.4" customHeight="1">
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="175"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="36" t="s">
         <v>89</v>
       </c>
@@ -4253,13 +4315,13 @@
       </c>
     </row>
     <row r="50" spans="2:18" ht="244.7" customHeight="1">
-      <c r="B50" s="174">
+      <c r="B50" s="117">
         <v>4</v>
       </c>
-      <c r="C50" s="174" t="s">
+      <c r="C50" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="175">
+      <c r="D50" s="118">
         <v>10</v>
       </c>
       <c r="E50" s="36" t="s">
@@ -4294,9 +4356,9 @@
       </c>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="175"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="36" t="s">
         <v>101</v>
       </c>
@@ -4329,9 +4391,9 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="85.35" customHeight="1">
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="175"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="36" t="s">
         <v>104</v>
       </c>
@@ -4364,10 +4426,10 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="160.69999999999999" customHeight="1">
-      <c r="B53" s="173" t="s">
+      <c r="B53" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="173"/>
+      <c r="C53" s="112"/>
       <c r="D53" s="23">
         <v>100</v>
       </c>
@@ -4624,105 +4686,105 @@
       <c r="Q60" s="37"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="153" t="s">
+      <c r="B61" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="153"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="153"/>
-      <c r="F61" s="153"/>
-      <c r="G61" s="153"/>
-      <c r="H61" s="153"/>
-      <c r="I61" s="153"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
-      <c r="N61" s="153"/>
-      <c r="O61" s="153"/>
-      <c r="P61" s="153"/>
-      <c r="Q61" s="153"/>
-      <c r="R61" s="153"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="150" t="s">
+      <c r="B62" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="150"/>
-      <c r="D62" s="150"/>
-      <c r="E62" s="150"/>
-      <c r="F62" s="150"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="150"/>
-      <c r="I62" s="151" t="s">
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="J62" s="151"/>
-      <c r="K62" s="151"/>
-      <c r="L62" s="151"/>
-      <c r="M62" s="151"/>
-      <c r="N62" s="151"/>
-      <c r="O62" s="151"/>
-      <c r="P62" s="151"/>
-      <c r="Q62" s="151"/>
-      <c r="R62" s="151"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="114"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="114"/>
+      <c r="N62" s="114"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="114"/>
+      <c r="Q62" s="114"/>
+      <c r="R62" s="114"/>
     </row>
     <row r="63" spans="2:18" ht="15" customHeight="1">
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="157"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
-      <c r="N63" s="157"/>
-      <c r="O63" s="157"/>
-      <c r="P63" s="157"/>
-      <c r="Q63" s="157"/>
-      <c r="R63" s="157"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="115"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="116"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
     </row>
     <row r="64" spans="2:18" ht="15" customHeight="1">
-      <c r="B64" s="158"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="158"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="159"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="159"/>
-      <c r="L64" s="159"/>
-      <c r="M64" s="159"/>
-      <c r="N64" s="159"/>
-      <c r="O64" s="159"/>
-      <c r="P64" s="159"/>
-      <c r="Q64" s="159"/>
-      <c r="R64" s="159"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="108"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="108"/>
+      <c r="N64" s="108"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="108"/>
+      <c r="Q64" s="108"/>
+      <c r="R64" s="108"/>
     </row>
     <row r="65" spans="2:18" ht="15" customHeight="1">
-      <c r="B65" s="160"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="160"/>
-      <c r="E65" s="160"/>
-      <c r="F65" s="160"/>
-      <c r="G65" s="160"/>
-      <c r="H65" s="160"/>
-      <c r="I65" s="155"/>
-      <c r="J65" s="155"/>
-      <c r="K65" s="155"/>
-      <c r="L65" s="155"/>
-      <c r="M65" s="155"/>
-      <c r="N65" s="155"/>
-      <c r="O65" s="155"/>
-      <c r="P65" s="155"/>
-      <c r="Q65" s="155"/>
-      <c r="R65" s="155"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="110"/>
+      <c r="L65" s="110"/>
+      <c r="M65" s="110"/>
+      <c r="N65" s="110"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="110"/>
     </row>
     <row r="66" spans="2:18" ht="29.25" customHeight="1">
       <c r="B66" s="39"/>
@@ -4744,50 +4806,50 @@
       <c r="R66" s="41"/>
     </row>
     <row r="67" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B67" s="153" t="s">
+      <c r="B67" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="153"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="153"/>
-      <c r="F67" s="153"/>
-      <c r="G67" s="153"/>
-      <c r="H67" s="153"/>
-      <c r="I67" s="153"/>
-      <c r="J67" s="153"/>
-      <c r="K67" s="153"/>
-      <c r="L67" s="153"/>
-      <c r="M67" s="153"/>
-      <c r="N67" s="153"/>
-      <c r="O67" s="153"/>
-      <c r="P67" s="153"/>
-      <c r="Q67" s="153"/>
-      <c r="R67" s="153"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="111"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="111"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="111"/>
+      <c r="R67" s="111"/>
     </row>
     <row r="68" spans="2:18" ht="28.5" customHeight="1">
-      <c r="B68" s="141" t="s">
+      <c r="B68" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="141"/>
-      <c r="D68" s="141"/>
-      <c r="E68" s="141"/>
-      <c r="F68" s="141"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
       <c r="G68" s="42"/>
-      <c r="H68" s="138" t="s">
+      <c r="H68" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="I68" s="138"/>
-      <c r="J68" s="138"/>
-      <c r="K68" s="138"/>
-      <c r="L68" s="138"/>
-      <c r="M68" s="141" t="s">
+      <c r="I68" s="105"/>
+      <c r="J68" s="105"/>
+      <c r="K68" s="105"/>
+      <c r="L68" s="105"/>
+      <c r="M68" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="N68" s="141"/>
-      <c r="O68" s="141"/>
-      <c r="P68" s="141"/>
-      <c r="Q68" s="141"/>
-      <c r="R68" s="141"/>
+      <c r="N68" s="104"/>
+      <c r="O68" s="104"/>
+      <c r="P68" s="104"/>
+      <c r="Q68" s="104"/>
+      <c r="R68" s="104"/>
     </row>
     <row r="69" spans="2:18">
       <c r="B69" s="43" t="s">
@@ -4805,14 +4867,14 @@
       <c r="J69" s="44"/>
       <c r="K69" s="44"/>
       <c r="L69" s="45"/>
-      <c r="M69" s="144" t="s">
+      <c r="M69" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="N69" s="144"/>
-      <c r="O69" s="144"/>
-      <c r="P69" s="144"/>
-      <c r="Q69" s="144"/>
-      <c r="R69" s="144"/>
+      <c r="N69" s="106"/>
+      <c r="O69" s="106"/>
+      <c r="P69" s="106"/>
+      <c r="Q69" s="106"/>
+      <c r="R69" s="106"/>
     </row>
     <row r="70" spans="2:18" ht="15" customHeight="1">
       <c r="B70" s="47"/>
@@ -4826,109 +4888,106 @@
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="48"/>
-      <c r="M70" s="147"/>
-      <c r="N70" s="147"/>
-      <c r="O70" s="147"/>
-      <c r="P70" s="147"/>
-      <c r="Q70" s="147"/>
-      <c r="R70" s="147"/>
+      <c r="M70" s="102"/>
+      <c r="N70" s="102"/>
+      <c r="O70" s="102"/>
+      <c r="P70" s="102"/>
+      <c r="Q70" s="102"/>
+      <c r="R70" s="102"/>
     </row>
     <row r="71" spans="2:18" ht="15" customHeight="1">
-      <c r="B71" s="147" t="s">
+      <c r="B71" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="147"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="147"/>
-      <c r="F71" s="147"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
       <c r="G71" s="49"/>
-      <c r="H71" s="147" t="s">
+      <c r="H71" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="I71" s="147"/>
-      <c r="J71" s="147"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="147"/>
-      <c r="M71" s="147" t="s">
+      <c r="I71" s="102"/>
+      <c r="J71" s="102"/>
+      <c r="K71" s="102"/>
+      <c r="L71" s="102"/>
+      <c r="M71" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="N71" s="147"/>
-      <c r="O71" s="147"/>
-      <c r="P71" s="147"/>
-      <c r="Q71" s="147"/>
-      <c r="R71" s="147"/>
+      <c r="N71" s="102"/>
+      <c r="O71" s="102"/>
+      <c r="P71" s="102"/>
+      <c r="Q71" s="102"/>
+      <c r="R71" s="102"/>
     </row>
     <row r="72" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B72" s="135" t="s">
+      <c r="B72" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="135"/>
-      <c r="D72" s="135"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="135"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="103"/>
       <c r="G72" s="50"/>
-      <c r="H72" s="135" t="s">
+      <c r="H72" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="I72" s="135"/>
-      <c r="J72" s="135"/>
-      <c r="K72" s="135"/>
-      <c r="L72" s="135"/>
-      <c r="M72" s="135" t="s">
+      <c r="I72" s="103"/>
+      <c r="J72" s="103"/>
+      <c r="K72" s="103"/>
+      <c r="L72" s="103"/>
+      <c r="M72" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N72" s="135"/>
-      <c r="O72" s="135"/>
-      <c r="P72" s="135"/>
-      <c r="Q72" s="135"/>
-      <c r="R72" s="135"/>
+      <c r="N72" s="103"/>
+      <c r="O72" s="103"/>
+      <c r="P72" s="103"/>
+      <c r="Q72" s="103"/>
+      <c r="R72" s="103"/>
     </row>
     <row r="73" spans="2:18" ht="30" customHeight="1"/>
     <row r="74" spans="2:18" ht="31.5" customHeight="1"/>
     <row r="75" spans="2:18" ht="30.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="M71:R71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="M72:R72"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="I64:R64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="I65:R65"/>
-    <mergeCell ref="B67:R67"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B61:R61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="I62:R62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="I63:R63"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:N3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B24:R24"/>
@@ -4945,44 +5004,47 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="P25:P26"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:N3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B61:R61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="I62:R62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="I63:R63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="I64:R64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="I65:R65"/>
+    <mergeCell ref="B67:R67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="M71:R71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="M72:R72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/mock/Tempate01.xlsx
+++ b/mock/Tempate01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF77D2D-B738-46B8-9614-5E63D49512F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F82591-2286-4B4F-8F6F-0B375BAA9BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="26910" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="26910" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tempalte" sheetId="4" r:id="rId1"/>
@@ -591,10 +591,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00\%"/>
-    <numFmt numFmtId="165" formatCode="0;\-0;;@"/>
-    <numFmt numFmtId="166" formatCode="0;\-0;;@\,"/>
     <numFmt numFmtId="167" formatCode="0.00\\%"/>
   </numFmts>
   <fonts count="19">
@@ -1013,7 +1011,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1201,83 +1199,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1291,24 +1217,12 @@
     <xf numFmtId="167" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1318,21 +1232,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1342,7 +1241,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,19 +1259,58 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,55 +1319,19 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,88 +1364,188 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2000,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D125A0-D8A8-4519-B166-29E66ADEE5DA}">
   <dimension ref="B1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2028,304 +2033,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="26.25">
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="153" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="154" t="s">
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
       <c r="R1" s="64"/>
       <c r="S1" s="64"/>
     </row>
     <row r="2" spans="2:19" ht="26.25">
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
       <c r="R2" s="64"/>
       <c r="S2" s="64"/>
     </row>
     <row r="3" spans="2:19" ht="26.25">
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
       <c r="R3" s="64"/>
       <c r="S3" s="64"/>
     </row>
     <row r="6" spans="2:19" ht="15">
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="148" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="148" t="s">
+      <c r="F7" s="118"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="150"/>
-      <c r="J7" s="147" t="s">
+      <c r="I7" s="119"/>
+      <c r="J7" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="148" t="s">
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="150"/>
-      <c r="J8" s="147" t="s">
+      <c r="I8" s="119"/>
+      <c r="J8" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
     </row>
     <row r="10" spans="2:19" ht="15">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
     </row>
     <row r="11" spans="2:19" ht="22.5" customHeight="1">
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="143" t="s">
+      <c r="C11" s="111"/>
+      <c r="D11" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="144" t="s">
+      <c r="E11" s="112"/>
+      <c r="F11" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="145" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="140" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="139" t="s">
+      <c r="C14" s="106"/>
+      <c r="D14" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="139" t="s">
+      <c r="C15" s="106"/>
+      <c r="D15" s="108" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="139" t="s">
+      <c r="C16" s="106"/>
+      <c r="D16" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="136"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
     </row>
     <row r="18" spans="2:18" ht="15">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
     </row>
     <row r="19" spans="2:18" ht="15">
       <c r="B19" s="51"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="135" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="135"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98" t="s">
+      <c r="G19" s="109"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
       <c r="L19" s="52" t="s">
         <v>29</v>
       </c>
@@ -2338,17 +2343,17 @@
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
-      <c r="F20" s="155" t="s">
+      <c r="F20" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="155"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="55"/>
-      <c r="I20" s="91" t="s">
+      <c r="I20" s="67" t="s">
         <v>171</v>
       </c>
       <c r="J20" s="56"/>
       <c r="K20" s="57"/>
-      <c r="L20" s="93" t="e">
+      <c r="L20" s="69" t="e">
         <f>I20*F20/1000</f>
         <v>#VALUE!</v>
       </c>
@@ -2361,17 +2366,17 @@
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
-      <c r="F21" s="155" t="s">
+      <c r="F21" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="155"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="91" t="s">
+      <c r="I21" s="67" t="s">
         <v>172</v>
       </c>
       <c r="J21" s="56"/>
       <c r="K21" s="57"/>
-      <c r="L21" s="93" t="e">
+      <c r="L21" s="69" t="e">
         <f>I21*F21/1000</f>
         <v>#VALUE!</v>
       </c>
@@ -2384,17 +2389,17 @@
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
-      <c r="F22" s="155" t="s">
+      <c r="F22" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="155"/>
+      <c r="G22" s="102"/>
       <c r="H22" s="55"/>
-      <c r="I22" s="91" t="s">
+      <c r="I22" s="67" t="s">
         <v>173</v>
       </c>
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
-      <c r="L22" s="93" t="e">
+      <c r="L22" s="69" t="e">
         <f>I22*F22/1000</f>
         <v>#VALUE!</v>
       </c>
@@ -2407,17 +2412,17 @@
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="155" t="s">
+      <c r="F23" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="155"/>
+      <c r="G23" s="102"/>
       <c r="H23" s="55"/>
-      <c r="I23" s="91" t="s">
+      <c r="I23" s="67" t="s">
         <v>174</v>
       </c>
       <c r="J23" s="56"/>
       <c r="K23" s="57"/>
-      <c r="L23" s="93" t="e">
+      <c r="L23" s="69" t="e">
         <f>I23*F23/1000</f>
         <v>#VALUE!</v>
       </c>
@@ -2430,126 +2435,126 @@
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
-      <c r="F24" s="155" t="s">
+      <c r="F24" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="155"/>
+      <c r="G24" s="102"/>
       <c r="H24" s="55"/>
-      <c r="I24" s="91" t="s">
+      <c r="I24" s="67" t="s">
         <v>175</v>
       </c>
       <c r="J24" s="56"/>
       <c r="K24" s="57"/>
-      <c r="L24" s="93" t="e">
+      <c r="L24" s="69" t="e">
         <f>I24*F24/1000</f>
         <v>#VALUE!</v>
       </c>
       <c r="M24" s="58"/>
     </row>
     <row r="25" spans="2:18" ht="15">
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="59"/>
-      <c r="I25" s="92">
+      <c r="I25" s="68">
         <f>SUM(I20:I24)</f>
         <v>0</v>
       </c>
       <c r="J25" s="60"/>
       <c r="K25" s="61"/>
-      <c r="L25" s="94" t="e">
+      <c r="L25" s="70" t="e">
         <f>SUM(L20:L24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="M25" s="62"/>
     </row>
     <row r="27" spans="2:18" ht="15">
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="124"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="124"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
     </row>
     <row r="28" spans="2:18" ht="15">
-      <c r="B28" s="156" t="s">
+      <c r="B28" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="129" t="s">
+      <c r="D28" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="157" t="s">
+      <c r="E28" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="157" t="s">
+      <c r="F28" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="157" t="s">
+      <c r="G28" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="157" t="s">
+      <c r="H28" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="157" t="s">
+      <c r="I28" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="157" t="s">
+      <c r="J28" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="157" t="s">
+      <c r="K28" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="158" t="s">
+      <c r="L28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="159" t="s">
+      <c r="M28" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="160" t="s">
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="161" t="s">
+      <c r="Q28" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="161" t="s">
+      <c r="R28" s="94" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="60">
-      <c r="B29" s="157"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="163"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="90"/>
       <c r="M29" s="63" t="s">
         <v>48</v>
       </c>
@@ -2559,405 +2564,408 @@
       <c r="O29" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="165"/>
-    </row>
-    <row r="30" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B30" s="166" t="s">
+      <c r="P29" s="93"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+    </row>
+    <row r="30" spans="2:18" s="140" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B30" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="166"/>
-      <c r="D30" s="88" t="s">
+      <c r="C30" s="137"/>
+      <c r="D30" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="80" t="s">
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="138" t="s">
         <v>181</v>
       </c>
-      <c r="R30" s="79"/>
-    </row>
-    <row r="31" spans="2:18" s="85" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B31" s="70" t="s">
+      <c r="R30" s="139"/>
+    </row>
+    <row r="31" spans="2:18" s="143" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B31" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="D31" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83" t="s">
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="142"/>
+      <c r="Q31" s="142" t="s">
         <v>179</v>
       </c>
-      <c r="R31" s="83"/>
-    </row>
-    <row r="32" spans="2:18" s="85" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B32" s="81" t="s">
+      <c r="R31" s="142"/>
+    </row>
+    <row r="32" spans="2:18" s="143" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B32" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="90" t="s">
+      <c r="D32" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="86" t="s">
+      <c r="E32" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86" t="s">
+      <c r="G32" s="145"/>
+      <c r="H32" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="I32" s="86" t="s">
+      <c r="I32" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86" t="s">
+      <c r="J32" s="145"/>
+      <c r="K32" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="86" t="s">
+      <c r="L32" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86" t="s">
+      <c r="M32" s="145"/>
+      <c r="N32" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="O32" s="86" t="s">
+      <c r="O32" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="P32" s="86" t="s">
+      <c r="P32" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="Q32" s="86" t="s">
+      <c r="Q32" s="145" t="s">
         <v>140</v>
       </c>
-      <c r="R32" s="86"/>
-    </row>
-    <row r="33" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-    </row>
-    <row r="34" spans="2:18" ht="15">
-      <c r="B34" s="111" t="s">
+      <c r="R32" s="145"/>
+    </row>
+    <row r="33" spans="2:18" s="140" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="146"/>
+    </row>
+    <row r="34" spans="2:18" s="140" customFormat="1" ht="30">
+      <c r="B34" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="167"/>
-      <c r="P34" s="167"/>
-      <c r="Q34" s="167"/>
-      <c r="R34" s="167"/>
-    </row>
-    <row r="35" spans="2:18" ht="15" customHeight="1">
-      <c r="B35" s="113" t="s">
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="148"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="148"/>
+    </row>
+    <row r="35" spans="2:18" s="140" customFormat="1" ht="15" customHeight="1">
+      <c r="B35" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="114" t="s">
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="168"/>
-    </row>
-    <row r="36" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-    </row>
-    <row r="37" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="108"/>
-    </row>
-    <row r="38" spans="2:18" ht="28.5" customHeight="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="110"/>
-    </row>
-    <row r="39" spans="2:18">
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="73"/>
-    </row>
-    <row r="40" spans="2:18" ht="15">
-      <c r="B40" s="111" t="s">
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="150"/>
+      <c r="Q35" s="150"/>
+      <c r="R35" s="151"/>
+    </row>
+    <row r="36" spans="2:18" s="140" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B36" s="152"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+    </row>
+    <row r="37" spans="2:18" s="140" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="155"/>
+      <c r="R37" s="155"/>
+    </row>
+    <row r="38" spans="2:18" s="140" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="157"/>
+    </row>
+    <row r="39" spans="2:18" s="140" customFormat="1">
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="158"/>
+      <c r="J39" s="158"/>
+      <c r="K39" s="158"/>
+      <c r="L39" s="158"/>
+      <c r="M39" s="158"/>
+      <c r="N39" s="158"/>
+      <c r="O39" s="158"/>
+      <c r="P39" s="159"/>
+      <c r="Q39" s="159"/>
+      <c r="R39" s="160"/>
+    </row>
+    <row r="40" spans="2:18" s="140" customFormat="1" ht="30">
+      <c r="B40" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="167"/>
-      <c r="O40" s="167"/>
-      <c r="P40" s="167"/>
-      <c r="Q40" s="167"/>
-      <c r="R40" s="167"/>
-    </row>
-    <row r="41" spans="2:18" ht="15">
-      <c r="B41" s="104" t="s">
+      <c r="C40" s="148"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
+      <c r="N40" s="148"/>
+      <c r="O40" s="148"/>
+      <c r="P40" s="148"/>
+      <c r="Q40" s="148"/>
+      <c r="R40" s="148"/>
+    </row>
+    <row r="41" spans="2:18" s="140" customFormat="1" ht="60">
+      <c r="B41" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="105" t="s">
+      <c r="C41" s="162"/>
+      <c r="D41" s="162"/>
+      <c r="E41" s="162"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="104" t="s">
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="N41" s="169"/>
-      <c r="O41" s="169"/>
-      <c r="P41" s="169"/>
-      <c r="Q41" s="169"/>
-      <c r="R41" s="170"/>
-    </row>
-    <row r="42" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B42" s="74" t="s">
+      <c r="N41" s="162"/>
+      <c r="O41" s="162"/>
+      <c r="P41" s="162"/>
+      <c r="Q41" s="162"/>
+      <c r="R41" s="163"/>
+    </row>
+    <row r="42" spans="2:18" s="140" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B42" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="101" t="s">
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="106" t="s">
+      <c r="I42" s="168"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="168"/>
+      <c r="L42" s="169"/>
+      <c r="M42" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="N42" s="173"/>
-      <c r="O42" s="173"/>
-      <c r="P42" s="173"/>
-      <c r="Q42" s="173"/>
-      <c r="R42" s="174"/>
-    </row>
-    <row r="43" spans="2:18" ht="30" customHeight="1">
-      <c r="B43" s="77"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="175"/>
-      <c r="O43" s="175"/>
-      <c r="P43" s="175"/>
-      <c r="Q43" s="175"/>
-      <c r="R43" s="176"/>
-    </row>
-    <row r="44" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B44" s="102" t="s">
+      <c r="N42" s="171"/>
+      <c r="O42" s="171"/>
+      <c r="P42" s="171"/>
+      <c r="Q42" s="171"/>
+      <c r="R42" s="172"/>
+    </row>
+    <row r="43" spans="2:18" s="140" customFormat="1" ht="30" customHeight="1">
+      <c r="B43" s="173"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
+      <c r="E43" s="174"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="174"/>
+      <c r="L43" s="175"/>
+      <c r="M43" s="176"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="177"/>
+      <c r="P43" s="177"/>
+      <c r="Q43" s="177"/>
+      <c r="R43" s="178"/>
+    </row>
+    <row r="44" spans="2:18" s="140" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B44" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="175"/>
-      <c r="D44" s="175"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="102" t="s">
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="I44" s="175"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="175"/>
-      <c r="L44" s="176"/>
-      <c r="M44" s="102" t="s">
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="178"/>
+      <c r="M44" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="N44" s="175"/>
-      <c r="O44" s="175"/>
-      <c r="P44" s="175"/>
-      <c r="Q44" s="175"/>
-      <c r="R44" s="176"/>
-    </row>
-    <row r="45" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B45" s="103" t="s">
+      <c r="N44" s="177"/>
+      <c r="O44" s="177"/>
+      <c r="P44" s="177"/>
+      <c r="Q44" s="177"/>
+      <c r="R44" s="178"/>
+    </row>
+    <row r="45" spans="2:18" s="140" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B45" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="103" t="s">
+      <c r="C45" s="180"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="180"/>
+      <c r="H45" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="I45" s="177"/>
-      <c r="J45" s="177"/>
-      <c r="K45" s="177"/>
-      <c r="L45" s="178"/>
-      <c r="M45" s="103" t="s">
+      <c r="I45" s="180"/>
+      <c r="J45" s="180"/>
+      <c r="K45" s="180"/>
+      <c r="L45" s="181"/>
+      <c r="M45" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="N45" s="177"/>
-      <c r="O45" s="177"/>
-      <c r="P45" s="177"/>
-      <c r="Q45" s="177"/>
-      <c r="R45" s="178"/>
-    </row>
-    <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="1" customFormat="1"/>
-    <row r="51" s="1" customFormat="1"/>
-    <row r="52" s="1" customFormat="1"/>
-    <row r="53" s="1" customFormat="1"/>
-    <row r="54" s="1" customFormat="1"/>
-    <row r="55" s="1" customFormat="1"/>
-    <row r="56" s="1" customFormat="1"/>
-    <row r="57" s="1" customFormat="1"/>
-    <row r="58" s="1" customFormat="1"/>
-    <row r="59" s="1" customFormat="1"/>
-    <row r="60" s="1" customFormat="1"/>
-    <row r="61" s="1" customFormat="1"/>
-    <row r="62" s="1" customFormat="1"/>
-    <row r="63" s="1" customFormat="1"/>
-    <row r="64" s="1" customFormat="1"/>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
+      <c r="N45" s="180"/>
+      <c r="O45" s="180"/>
+      <c r="P45" s="180"/>
+      <c r="Q45" s="180"/>
+      <c r="R45" s="181"/>
+    </row>
+    <row r="46" spans="2:18" s="140" customFormat="1"/>
+    <row r="47" spans="2:18" s="140" customFormat="1"/>
+    <row r="48" spans="2:18" s="140" customFormat="1"/>
+    <row r="49" s="140" customFormat="1"/>
+    <row r="50" s="140" customFormat="1"/>
+    <row r="51" s="140" customFormat="1"/>
+    <row r="52" s="140" customFormat="1"/>
+    <row r="53" s="140" customFormat="1"/>
+    <row r="54" s="140" customFormat="1"/>
+    <row r="55" s="140" customFormat="1"/>
+    <row r="56" s="140" customFormat="1"/>
+    <row r="57" s="140" customFormat="1"/>
+    <row r="58" s="140" customFormat="1"/>
+    <row r="59" s="140" customFormat="1"/>
+    <row r="60" s="140" customFormat="1"/>
+    <row r="61" s="140" customFormat="1"/>
+    <row r="62" s="140" customFormat="1"/>
+    <row r="63" s="140" customFormat="1"/>
+    <row r="64" s="140" customFormat="1"/>
+    <row r="65" s="140" customFormat="1"/>
+    <row r="66" s="140" customFormat="1"/>
+    <row r="67" s="140" customFormat="1"/>
     <row r="68" s="1" customFormat="1"/>
     <row r="69" s="1" customFormat="1"/>
     <row r="70" s="1" customFormat="1"/>
@@ -2966,34 +2974,52 @@
     <row r="73" s="1" customFormat="1"/>
     <row r="74" s="1" customFormat="1"/>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="M42:R42"/>
-    <mergeCell ref="M43:R43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="I38:R38"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="I35:R35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="I36:R36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="I37:R37"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
+  <mergeCells count="61">
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:N3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="B27:R27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -3004,51 +3030,12 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:N3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3091,286 +3078,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="153" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="154" t="s">
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
     <row r="6" spans="2:19" ht="15" customHeight="1">
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="148" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="148" t="s">
+      <c r="F7" s="118"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150"/>
-      <c r="J7" s="147" t="s">
+      <c r="I7" s="119"/>
+      <c r="J7" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="148" t="s">
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="150"/>
-      <c r="J8" s="147" t="s">
+      <c r="I8" s="119"/>
+      <c r="J8" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
     </row>
     <row r="10" spans="2:19" ht="15" customHeight="1">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
     </row>
     <row r="11" spans="2:19" ht="22.5" customHeight="1">
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="143" t="s">
+      <c r="C11" s="111"/>
+      <c r="D11" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="144" t="s">
+      <c r="E11" s="112"/>
+      <c r="F11" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="145" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="140" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="138" t="s">
+      <c r="C14" s="106"/>
+      <c r="D14" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138" t="s">
+      <c r="C15" s="106"/>
+      <c r="D15" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="136"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
     </row>
     <row r="17" spans="2:18" ht="15">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="135" t="s">
+      <c r="F18" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="135"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
       <c r="L18" s="5" t="s">
         <v>29</v>
       </c>
@@ -3383,10 +3370,10 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="121">
+      <c r="F19" s="125">
         <v>90.915999999999997</v>
       </c>
-      <c r="G19" s="121"/>
+      <c r="G19" s="125"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9">
         <v>80</v>
@@ -3406,10 +3393,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="121">
+      <c r="F20" s="125">
         <v>71.3125</v>
       </c>
-      <c r="G20" s="121"/>
+      <c r="G20" s="125"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9">
         <v>20</v>
@@ -3429,10 +3416,10 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="121">
+      <c r="F21" s="125">
         <v>5</v>
       </c>
-      <c r="G21" s="121"/>
+      <c r="G21" s="125"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9">
         <v>10</v>
@@ -3446,10 +3433,10 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="2:18" ht="21.75" customHeight="1">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="123"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
@@ -3469,87 +3456,87 @@
     </row>
     <row r="23" spans="2:18" ht="18.75" customHeight="1"/>
     <row r="24" spans="2:18" ht="21" customHeight="1">
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="124"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="127" t="s">
+      <c r="F25" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="127" t="s">
+      <c r="G25" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="127" t="s">
+      <c r="H25" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="127" t="s">
+      <c r="I25" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="127" t="s">
+      <c r="J25" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="127" t="s">
+      <c r="K25" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="131" t="s">
+      <c r="L25" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="125" t="s">
+      <c r="M25" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="133" t="s">
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="119" t="s">
+      <c r="Q25" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="R25" s="119" t="s">
+      <c r="R25" s="132" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1">
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="132"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="129"/>
       <c r="M26" s="22" t="s">
         <v>48</v>
       </c>
@@ -3559,15 +3546,15 @@
       <c r="O26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1">
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="112"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="23">
         <v>100</v>
       </c>
@@ -3620,19 +3607,19 @@
       </c>
     </row>
     <row r="29" spans="2:18" ht="60" customHeight="1">
-      <c r="B29" s="117">
+      <c r="B29" s="135">
         <v>1</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="118">
+      <c r="D29" s="136">
         <v>5</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F29" s="66">
         <v>50</v>
       </c>
       <c r="H29" s="36" t="s">
@@ -3661,9 +3648,9 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="30" customHeight="1">
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="118"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="136"/>
       <c r="E30" s="36" t="s">
         <v>57</v>
       </c>
@@ -3806,13 +3793,13 @@
       </c>
     </row>
     <row r="35" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="117">
+      <c r="B35" s="135">
         <v>5</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="118">
+      <c r="D35" s="136">
         <v>12</v>
       </c>
       <c r="E35" s="36" t="s">
@@ -3847,9 +3834,9 @@
       </c>
     </row>
     <row r="36" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="136"/>
       <c r="E36" s="36" t="s">
         <v>68</v>
       </c>
@@ -3882,9 +3869,9 @@
       </c>
     </row>
     <row r="37" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="118"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="136"/>
       <c r="E37" s="36" t="s">
         <v>70</v>
       </c>
@@ -3973,10 +3960,10 @@
       </c>
     </row>
     <row r="40" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="112"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="23">
         <v>80</v>
       </c>
@@ -4029,13 +4016,13 @@
       </c>
     </row>
     <row r="42" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B42" s="117">
+      <c r="B42" s="135">
         <v>1</v>
       </c>
-      <c r="C42" s="117" t="s">
+      <c r="C42" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="118">
+      <c r="D42" s="136">
         <v>10</v>
       </c>
       <c r="E42" s="36" t="s">
@@ -4070,9 +4057,9 @@
       </c>
     </row>
     <row r="43" spans="2:18" ht="30" customHeight="1">
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="136"/>
       <c r="E43" s="36" t="s">
         <v>79</v>
       </c>
@@ -4105,9 +4092,9 @@
       </c>
     </row>
     <row r="44" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="117"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="136"/>
       <c r="E44" s="36" t="s">
         <v>82</v>
       </c>
@@ -4169,13 +4156,13 @@
       </c>
     </row>
     <row r="46" spans="2:18" ht="105.4" customHeight="1">
-      <c r="B46" s="117">
+      <c r="B46" s="135">
         <v>2</v>
       </c>
-      <c r="C46" s="117" t="s">
+      <c r="C46" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="118">
+      <c r="D46" s="136">
         <v>45</v>
       </c>
       <c r="E46" s="36" t="s">
@@ -4210,9 +4197,9 @@
       </c>
     </row>
     <row r="47" spans="2:18" ht="105.4" customHeight="1">
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="136"/>
       <c r="E47" s="36" t="s">
         <v>89</v>
       </c>
@@ -4315,13 +4302,13 @@
       </c>
     </row>
     <row r="50" spans="2:18" ht="244.7" customHeight="1">
-      <c r="B50" s="117">
+      <c r="B50" s="135">
         <v>4</v>
       </c>
-      <c r="C50" s="117" t="s">
+      <c r="C50" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="118">
+      <c r="D50" s="136">
         <v>10</v>
       </c>
       <c r="E50" s="36" t="s">
@@ -4356,9 +4343,9 @@
       </c>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="117"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="136"/>
       <c r="E51" s="36" t="s">
         <v>101</v>
       </c>
@@ -4391,9 +4378,9 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="85.35" customHeight="1">
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="136"/>
       <c r="E52" s="36" t="s">
         <v>104</v>
       </c>
@@ -4426,10 +4413,10 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="160.69999999999999" customHeight="1">
-      <c r="B53" s="112" t="s">
+      <c r="B53" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="112"/>
+      <c r="C53" s="134"/>
       <c r="D53" s="23">
         <v>100</v>
       </c>
@@ -4686,105 +4673,105 @@
       <c r="Q60" s="37"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="111"/>
-      <c r="L61" s="111"/>
-      <c r="M61" s="111"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="78"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="78"/>
+      <c r="R61" s="78"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="113" t="s">
+      <c r="B62" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="114" t="s">
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="J62" s="114"/>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="114"/>
-      <c r="R62" s="114"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="82"/>
+      <c r="O62" s="82"/>
+      <c r="P62" s="82"/>
+      <c r="Q62" s="82"/>
+      <c r="R62" s="82"/>
     </row>
     <row r="63" spans="2:18" ht="15" customHeight="1">
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="115"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="116"/>
-      <c r="P63" s="116"/>
-      <c r="Q63" s="116"/>
-      <c r="R63" s="116"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
+      <c r="Q63" s="84"/>
+      <c r="R63" s="84"/>
     </row>
     <row r="64" spans="2:18" ht="15" customHeight="1">
-      <c r="B64" s="107"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="108"/>
-      <c r="J64" s="108"/>
-      <c r="K64" s="108"/>
-      <c r="L64" s="108"/>
-      <c r="M64" s="108"/>
-      <c r="N64" s="108"/>
-      <c r="O64" s="108"/>
-      <c r="P64" s="108"/>
-      <c r="Q64" s="108"/>
-      <c r="R64" s="108"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
+      <c r="K64" s="86"/>
+      <c r="L64" s="86"/>
+      <c r="M64" s="86"/>
+      <c r="N64" s="86"/>
+      <c r="O64" s="86"/>
+      <c r="P64" s="86"/>
+      <c r="Q64" s="86"/>
+      <c r="R64" s="86"/>
     </row>
     <row r="65" spans="2:18" ht="15" customHeight="1">
-      <c r="B65" s="109"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="109"/>
-      <c r="H65" s="109"/>
-      <c r="I65" s="110"/>
-      <c r="J65" s="110"/>
-      <c r="K65" s="110"/>
-      <c r="L65" s="110"/>
-      <c r="M65" s="110"/>
-      <c r="N65" s="110"/>
-      <c r="O65" s="110"/>
-      <c r="P65" s="110"/>
-      <c r="Q65" s="110"/>
-      <c r="R65" s="110"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="77"/>
+      <c r="P65" s="77"/>
+      <c r="Q65" s="77"/>
+      <c r="R65" s="77"/>
     </row>
     <row r="66" spans="2:18" ht="29.25" customHeight="1">
       <c r="B66" s="39"/>
@@ -4806,50 +4793,50 @@
       <c r="R66" s="41"/>
     </row>
     <row r="67" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B67" s="111" t="s">
+      <c r="B67" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="111"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="111"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="111"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="111"/>
-      <c r="K67" s="111"/>
-      <c r="L67" s="111"/>
-      <c r="M67" s="111"/>
-      <c r="N67" s="111"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="111"/>
-      <c r="R67" s="111"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="78"/>
+      <c r="R67" s="78"/>
     </row>
     <row r="68" spans="2:18" ht="28.5" customHeight="1">
-      <c r="B68" s="104" t="s">
+      <c r="B68" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
       <c r="G68" s="42"/>
-      <c r="H68" s="105" t="s">
+      <c r="H68" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="I68" s="105"/>
-      <c r="J68" s="105"/>
-      <c r="K68" s="105"/>
-      <c r="L68" s="105"/>
-      <c r="M68" s="104" t="s">
+      <c r="I68" s="80"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="N68" s="104"/>
-      <c r="O68" s="104"/>
-      <c r="P68" s="104"/>
-      <c r="Q68" s="104"/>
-      <c r="R68" s="104"/>
+      <c r="N68" s="79"/>
+      <c r="O68" s="79"/>
+      <c r="P68" s="79"/>
+      <c r="Q68" s="79"/>
+      <c r="R68" s="79"/>
     </row>
     <row r="69" spans="2:18">
       <c r="B69" s="43" t="s">
@@ -4867,14 +4854,14 @@
       <c r="J69" s="44"/>
       <c r="K69" s="44"/>
       <c r="L69" s="45"/>
-      <c r="M69" s="106" t="s">
+      <c r="M69" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="N69" s="106"/>
-      <c r="O69" s="106"/>
-      <c r="P69" s="106"/>
-      <c r="Q69" s="106"/>
-      <c r="R69" s="106"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="73"/>
+      <c r="Q69" s="73"/>
+      <c r="R69" s="73"/>
     </row>
     <row r="70" spans="2:18" ht="15" customHeight="1">
       <c r="B70" s="47"/>
@@ -4888,106 +4875,109 @@
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="48"/>
-      <c r="M70" s="102"/>
-      <c r="N70" s="102"/>
-      <c r="O70" s="102"/>
-      <c r="P70" s="102"/>
-      <c r="Q70" s="102"/>
-      <c r="R70" s="102"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="74"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="74"/>
     </row>
     <row r="71" spans="2:18" ht="15" customHeight="1">
-      <c r="B71" s="102" t="s">
+      <c r="B71" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="102"/>
-      <c r="D71" s="102"/>
-      <c r="E71" s="102"/>
-      <c r="F71" s="102"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
       <c r="G71" s="49"/>
-      <c r="H71" s="102" t="s">
+      <c r="H71" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="I71" s="102"/>
-      <c r="J71" s="102"/>
-      <c r="K71" s="102"/>
-      <c r="L71" s="102"/>
-      <c r="M71" s="102" t="s">
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="N71" s="102"/>
-      <c r="O71" s="102"/>
-      <c r="P71" s="102"/>
-      <c r="Q71" s="102"/>
-      <c r="R71" s="102"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="74"/>
+      <c r="P71" s="74"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="74"/>
     </row>
     <row r="72" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B72" s="103" t="s">
+      <c r="B72" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="103"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
       <c r="G72" s="50"/>
-      <c r="H72" s="103" t="s">
+      <c r="H72" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="I72" s="103"/>
-      <c r="J72" s="103"/>
-      <c r="K72" s="103"/>
-      <c r="L72" s="103"/>
-      <c r="M72" s="103" t="s">
+      <c r="I72" s="75"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="N72" s="103"/>
-      <c r="O72" s="103"/>
-      <c r="P72" s="103"/>
-      <c r="Q72" s="103"/>
-      <c r="R72" s="103"/>
+      <c r="N72" s="75"/>
+      <c r="O72" s="75"/>
+      <c r="P72" s="75"/>
+      <c r="Q72" s="75"/>
+      <c r="R72" s="75"/>
     </row>
     <row r="73" spans="2:18" ht="30" customHeight="1"/>
     <row r="74" spans="2:18" ht="31.5" customHeight="1"/>
     <row r="75" spans="2:18" ht="30.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:N3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="M71:R71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="I64:R64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="I65:R65"/>
+    <mergeCell ref="B67:R67"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B61:R61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="I62:R62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="I63:R63"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B24:R24"/>
@@ -5004,47 +4994,44 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B61:R61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="I62:R62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="I63:R63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="I64:R64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="I65:R65"/>
-    <mergeCell ref="B67:R67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="M71:R71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:N3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/mock/Tempate01.xlsx
+++ b/mock/Tempate01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F82591-2286-4B4F-8F6F-0B375BAA9BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5529FC0-3FC9-46AE-ACC6-4AEB98F5687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="990" windowWidth="26910" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="990" windowWidth="26910" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tempalte" sheetId="4" r:id="rId1"/>
@@ -593,7 +593,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00\%"/>
-    <numFmt numFmtId="167" formatCode="0.00\\%"/>
+    <numFmt numFmtId="165" formatCode="0.00\\%"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -673,11 +673,13 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1011,7 +1013,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1205,16 +1207,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1223,14 +1225,267 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1241,10 +1496,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,294 +1511,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2005,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D125A0-D8A8-4519-B166-29E66ADEE5DA}">
   <dimension ref="B1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2033,304 +2041,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="26.25">
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="122" t="s">
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
       <c r="R1" s="64"/>
       <c r="S1" s="64"/>
     </row>
     <row r="2" spans="2:19" ht="26.25">
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="122" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
       <c r="R2" s="64"/>
       <c r="S2" s="64"/>
     </row>
     <row r="3" spans="2:19" ht="26.25">
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
       <c r="R3" s="64"/>
       <c r="S3" s="64"/>
     </row>
     <row r="6" spans="2:19" ht="15">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="117" t="s">
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="116" t="s">
+      <c r="I7" s="124"/>
+      <c r="J7" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117" t="s">
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="117" t="s">
+      <c r="F8" s="123"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="119"/>
-      <c r="J8" s="116" t="s">
+      <c r="I8" s="124"/>
+      <c r="J8" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
     </row>
     <row r="10" spans="2:19" ht="15">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
     </row>
     <row r="11" spans="2:19" ht="22.5" customHeight="1">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112" t="s">
+      <c r="C11" s="127"/>
+      <c r="D11" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="114" t="s">
+      <c r="C12" s="131"/>
+      <c r="D12" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107" t="s">
+      <c r="C13" s="131"/>
+      <c r="D13" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="108" t="s">
+      <c r="C14" s="131"/>
+      <c r="D14" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="108" t="s">
+      <c r="C15" s="131"/>
+      <c r="D15" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="108" t="s">
+      <c r="C16" s="131"/>
+      <c r="D16" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
     </row>
     <row r="18" spans="2:18" ht="15">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
     </row>
     <row r="19" spans="2:18" ht="15">
       <c r="B19" s="51"/>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
-      <c r="F19" s="109" t="s">
+      <c r="F19" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="109"/>
+      <c r="G19" s="138"/>
       <c r="H19" s="71"/>
       <c r="I19" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
       <c r="L19" s="52" t="s">
         <v>29</v>
       </c>
@@ -2343,10 +2351,10 @@
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="102"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="55"/>
       <c r="I20" s="67" t="s">
         <v>171</v>
@@ -2366,10 +2374,10 @@
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="102"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="55"/>
       <c r="I21" s="67" t="s">
         <v>172</v>
@@ -2389,10 +2397,10 @@
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
-      <c r="F22" s="102" t="s">
+      <c r="F22" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="102"/>
+      <c r="G22" s="139"/>
       <c r="H22" s="55"/>
       <c r="I22" s="67" t="s">
         <v>173</v>
@@ -2412,10 +2420,10 @@
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="102"/>
+      <c r="G23" s="139"/>
       <c r="H23" s="55"/>
       <c r="I23" s="67" t="s">
         <v>174</v>
@@ -2435,10 +2443,10 @@
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="102"/>
+      <c r="G24" s="139"/>
       <c r="H24" s="55"/>
       <c r="I24" s="67" t="s">
         <v>175</v>
@@ -2452,10 +2460,10 @@
       <c r="M24" s="58"/>
     </row>
     <row r="25" spans="2:18" ht="15">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="104"/>
+      <c r="C25" s="137"/>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
       <c r="F25" s="65"/>
@@ -2474,87 +2482,87 @@
       <c r="M25" s="62"/>
     </row>
     <row r="27" spans="2:18" ht="15">
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
     </row>
     <row r="28" spans="2:18" ht="15">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="87" t="s">
+      <c r="H28" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="87" t="s">
+      <c r="I28" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="87" t="s">
+      <c r="J28" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="87" t="s">
+      <c r="K28" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="89" t="s">
+      <c r="L28" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="91" t="s">
+      <c r="M28" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="92" t="s">
+      <c r="N28" s="149"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="94" t="s">
+      <c r="Q28" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="94" t="s">
+      <c r="R28" s="152" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="60">
-      <c r="B29" s="87"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="90"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="148"/>
       <c r="M29" s="63" t="s">
         <v>48</v>
       </c>
@@ -2564,408 +2572,408 @@
       <c r="O29" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-    </row>
-    <row r="30" spans="2:18" s="140" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B30" s="137" t="s">
+      <c r="P29" s="151"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="153"/>
+    </row>
+    <row r="30" spans="2:18" s="75" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B30" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="137"/>
-      <c r="D30" s="138" t="s">
+      <c r="C30" s="73"/>
+      <c r="D30" s="181" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="139"/>
-      <c r="Q30" s="138" t="s">
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="181" t="s">
         <v>181</v>
       </c>
-      <c r="R30" s="139"/>
-    </row>
-    <row r="31" spans="2:18" s="143" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B31" s="141" t="s">
+      <c r="R30" s="74"/>
+    </row>
+    <row r="31" spans="2:18" s="78" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B31" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="142" t="s">
+      <c r="C31" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="142" t="s">
+      <c r="D31" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="142" t="s">
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="R31" s="142"/>
-    </row>
-    <row r="32" spans="2:18" s="143" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B32" s="144" t="s">
+      <c r="R31" s="77"/>
+    </row>
+    <row r="32" spans="2:18" s="78" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B32" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="145" t="s">
+      <c r="D32" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="145" t="s">
+      <c r="E32" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="145" t="s">
+      <c r="F32" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145" t="s">
+      <c r="G32" s="80"/>
+      <c r="H32" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="I32" s="145" t="s">
+      <c r="I32" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145" t="s">
+      <c r="J32" s="80"/>
+      <c r="K32" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="145" t="s">
+      <c r="L32" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145" t="s">
+      <c r="M32" s="80"/>
+      <c r="N32" s="183" t="s">
         <v>137</v>
       </c>
-      <c r="O32" s="145" t="s">
+      <c r="O32" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="P32" s="145" t="s">
+      <c r="P32" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="Q32" s="145" t="s">
+      <c r="Q32" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="R32" s="145"/>
-    </row>
-    <row r="33" spans="2:18" s="140" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-    </row>
-    <row r="34" spans="2:18" s="140" customFormat="1" ht="30">
-      <c r="B34" s="147" t="s">
+      <c r="R32" s="80"/>
+    </row>
+    <row r="33" spans="2:18" s="75" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+    </row>
+    <row r="34" spans="2:18" s="75" customFormat="1" ht="30">
+      <c r="B34" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="148"/>
-      <c r="Q34" s="148"/>
-      <c r="R34" s="148"/>
-    </row>
-    <row r="35" spans="2:18" s="140" customFormat="1" ht="15" customHeight="1">
-      <c r="B35" s="149" t="s">
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+    </row>
+    <row r="35" spans="2:18" s="75" customFormat="1" ht="15" customHeight="1">
+      <c r="B35" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="150" t="s">
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="150"/>
-      <c r="P35" s="150"/>
-      <c r="Q35" s="150"/>
-      <c r="R35" s="151"/>
-    </row>
-    <row r="36" spans="2:18" s="140" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B36" s="152"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-    </row>
-    <row r="37" spans="2:18" s="140" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="155"/>
-      <c r="Q37" s="155"/>
-      <c r="R37" s="155"/>
-    </row>
-    <row r="38" spans="2:18" s="140" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="157"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="157"/>
-      <c r="O38" s="157"/>
-      <c r="P38" s="157"/>
-      <c r="Q38" s="157"/>
-      <c r="R38" s="157"/>
-    </row>
-    <row r="39" spans="2:18" s="140" customFormat="1">
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="158"/>
-      <c r="P39" s="159"/>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="160"/>
-    </row>
-    <row r="40" spans="2:18" s="140" customFormat="1" ht="30">
-      <c r="B40" s="147" t="s">
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="86"/>
+    </row>
+    <row r="36" spans="2:18" s="75" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+    </row>
+    <row r="37" spans="2:18" s="75" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+    </row>
+    <row r="38" spans="2:18" s="75" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+    </row>
+    <row r="39" spans="2:18" s="75" customFormat="1">
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="95"/>
+    </row>
+    <row r="40" spans="2:18" s="75" customFormat="1" ht="30">
+      <c r="B40" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="148"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
-      <c r="N40" s="148"/>
-      <c r="O40" s="148"/>
-      <c r="P40" s="148"/>
-      <c r="Q40" s="148"/>
-      <c r="R40" s="148"/>
-    </row>
-    <row r="41" spans="2:18" s="140" customFormat="1" ht="60">
-      <c r="B41" s="161" t="s">
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+    </row>
+    <row r="41" spans="2:18" s="75" customFormat="1" ht="60">
+      <c r="B41" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="162"/>
-      <c r="D41" s="162"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="164" t="s">
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="165"/>
-      <c r="J41" s="165"/>
-      <c r="K41" s="165"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="161" t="s">
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="N41" s="162"/>
-      <c r="O41" s="162"/>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="162"/>
-      <c r="R41" s="163"/>
-    </row>
-    <row r="42" spans="2:18" s="140" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B42" s="167" t="s">
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="98"/>
+    </row>
+    <row r="42" spans="2:18" s="75" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B42" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="170" t="s">
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="169"/>
-      <c r="M42" s="170" t="s">
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="N42" s="171"/>
-      <c r="O42" s="171"/>
-      <c r="P42" s="171"/>
-      <c r="Q42" s="171"/>
-      <c r="R42" s="172"/>
-    </row>
-    <row r="43" spans="2:18" s="140" customFormat="1" ht="30" customHeight="1">
-      <c r="B43" s="173"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="175"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="175"/>
-      <c r="M43" s="176"/>
-      <c r="N43" s="177"/>
-      <c r="O43" s="177"/>
-      <c r="P43" s="177"/>
-      <c r="Q43" s="177"/>
-      <c r="R43" s="178"/>
-    </row>
-    <row r="44" spans="2:18" s="140" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B44" s="176" t="s">
+      <c r="N42" s="106"/>
+      <c r="O42" s="106"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="107"/>
+    </row>
+    <row r="43" spans="2:18" s="75" customFormat="1" ht="30" customHeight="1">
+      <c r="B43" s="108"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="112"/>
+      <c r="R43" s="113"/>
+    </row>
+    <row r="44" spans="2:18" s="75" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B44" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="177"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="176" t="s">
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="I44" s="177"/>
-      <c r="J44" s="177"/>
-      <c r="K44" s="177"/>
-      <c r="L44" s="178"/>
-      <c r="M44" s="176" t="s">
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N44" s="177"/>
-      <c r="O44" s="177"/>
-      <c r="P44" s="177"/>
-      <c r="Q44" s="177"/>
-      <c r="R44" s="178"/>
-    </row>
-    <row r="45" spans="2:18" s="140" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B45" s="179" t="s">
+      <c r="N44" s="112"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="112"/>
+      <c r="Q44" s="112"/>
+      <c r="R44" s="113"/>
+    </row>
+    <row r="45" spans="2:18" s="75" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B45" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="180"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="180"/>
-      <c r="H45" s="179" t="s">
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="I45" s="180"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="180"/>
-      <c r="L45" s="181"/>
-      <c r="M45" s="179" t="s">
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="N45" s="180"/>
-      <c r="O45" s="180"/>
-      <c r="P45" s="180"/>
-      <c r="Q45" s="180"/>
-      <c r="R45" s="181"/>
-    </row>
-    <row r="46" spans="2:18" s="140" customFormat="1"/>
-    <row r="47" spans="2:18" s="140" customFormat="1"/>
-    <row r="48" spans="2:18" s="140" customFormat="1"/>
-    <row r="49" s="140" customFormat="1"/>
-    <row r="50" s="140" customFormat="1"/>
-    <row r="51" s="140" customFormat="1"/>
-    <row r="52" s="140" customFormat="1"/>
-    <row r="53" s="140" customFormat="1"/>
-    <row r="54" s="140" customFormat="1"/>
-    <row r="55" s="140" customFormat="1"/>
-    <row r="56" s="140" customFormat="1"/>
-    <row r="57" s="140" customFormat="1"/>
-    <row r="58" s="140" customFormat="1"/>
-    <row r="59" s="140" customFormat="1"/>
-    <row r="60" s="140" customFormat="1"/>
-    <row r="61" s="140" customFormat="1"/>
-    <row r="62" s="140" customFormat="1"/>
-    <row r="63" s="140" customFormat="1"/>
-    <row r="64" s="140" customFormat="1"/>
-    <row r="65" s="140" customFormat="1"/>
-    <row r="66" s="140" customFormat="1"/>
-    <row r="67" s="140" customFormat="1"/>
+      <c r="N45" s="115"/>
+      <c r="O45" s="115"/>
+      <c r="P45" s="115"/>
+      <c r="Q45" s="115"/>
+      <c r="R45" s="116"/>
+    </row>
+    <row r="46" spans="2:18" s="75" customFormat="1"/>
+    <row r="47" spans="2:18" s="75" customFormat="1"/>
+    <row r="48" spans="2:18" s="75" customFormat="1"/>
+    <row r="49" s="75" customFormat="1"/>
+    <row r="50" s="75" customFormat="1"/>
+    <row r="51" s="75" customFormat="1"/>
+    <row r="52" s="75" customFormat="1"/>
+    <row r="53" s="75" customFormat="1"/>
+    <row r="54" s="75" customFormat="1"/>
+    <row r="55" s="75" customFormat="1"/>
+    <row r="56" s="75" customFormat="1"/>
+    <row r="57" s="75" customFormat="1"/>
+    <row r="58" s="75" customFormat="1"/>
+    <row r="59" s="75" customFormat="1"/>
+    <row r="60" s="75" customFormat="1"/>
+    <row r="61" s="75" customFormat="1"/>
+    <row r="62" s="75" customFormat="1"/>
+    <row r="63" s="75" customFormat="1"/>
+    <row r="64" s="75" customFormat="1"/>
+    <row r="65" s="75" customFormat="1"/>
+    <row r="66" s="75" customFormat="1"/>
+    <row r="67" s="75" customFormat="1"/>
     <row r="68" s="1" customFormat="1"/>
     <row r="69" s="1" customFormat="1"/>
     <row r="70" s="1" customFormat="1"/>
@@ -2975,51 +2983,6 @@
     <row r="74" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:N3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
     <mergeCell ref="B27:R27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -3036,6 +2999,51 @@
     <mergeCell ref="P28:P29"/>
     <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="R28:R29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:N3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3078,286 +3086,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="122" t="s">
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="122" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
     <row r="6" spans="2:19" ht="15" customHeight="1">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="117" t="s">
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="116" t="s">
+      <c r="I7" s="124"/>
+      <c r="J7" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117" t="s">
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="117" t="s">
+      <c r="F8" s="123"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="119"/>
-      <c r="J8" s="116" t="s">
+      <c r="I8" s="124"/>
+      <c r="J8" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
     </row>
     <row r="10" spans="2:19" ht="15" customHeight="1">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
     </row>
     <row r="11" spans="2:19" ht="22.5" customHeight="1">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112" t="s">
+      <c r="C11" s="127"/>
+      <c r="D11" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="114" t="s">
+      <c r="C12" s="131"/>
+      <c r="D12" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107" t="s">
+      <c r="C13" s="131"/>
+      <c r="D13" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="124" t="s">
+      <c r="C14" s="131"/>
+      <c r="D14" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="124" t="s">
+      <c r="C15" s="131"/>
+      <c r="D15" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
     </row>
     <row r="17" spans="2:18" ht="15">
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="109"/>
+      <c r="G18" s="138"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
       <c r="L18" s="5" t="s">
         <v>29</v>
       </c>
@@ -3370,10 +3378,10 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="125">
+      <c r="F19" s="173">
         <v>90.915999999999997</v>
       </c>
-      <c r="G19" s="125"/>
+      <c r="G19" s="173"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9">
         <v>80</v>
@@ -3393,10 +3401,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="125">
+      <c r="F20" s="173">
         <v>71.3125</v>
       </c>
-      <c r="G20" s="125"/>
+      <c r="G20" s="173"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9">
         <v>20</v>
@@ -3416,10 +3424,10 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="125">
+      <c r="F21" s="173">
         <v>5</v>
       </c>
-      <c r="G21" s="125"/>
+      <c r="G21" s="173"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9">
         <v>10</v>
@@ -3433,10 +3441,10 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="2:18" ht="21.75" customHeight="1">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="104"/>
+      <c r="C22" s="137"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
@@ -3456,87 +3464,87 @@
     </row>
     <row r="23" spans="2:18" ht="18.75" customHeight="1"/>
     <row r="24" spans="2:18" ht="21" customHeight="1">
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="98" t="s">
+      <c r="F25" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="98" t="s">
+      <c r="G25" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="98" t="s">
+      <c r="H25" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="98" t="s">
+      <c r="I25" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="98" t="s">
+      <c r="J25" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="98" t="s">
+      <c r="K25" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="128" t="s">
+      <c r="L25" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="126" t="s">
+      <c r="M25" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="130" t="s">
+      <c r="N25" s="174"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="132" t="s">
+      <c r="Q25" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="R25" s="132" t="s">
+      <c r="R25" s="171" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1">
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="129"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="177"/>
       <c r="M26" s="22" t="s">
         <v>48</v>
       </c>
@@ -3546,15 +3554,15 @@
       <c r="O26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="133"/>
+      <c r="P26" s="179"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="172"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="134"/>
+      <c r="C27" s="164"/>
       <c r="D27" s="23">
         <v>100</v>
       </c>
@@ -3607,13 +3615,13 @@
       </c>
     </row>
     <row r="29" spans="2:18" ht="60" customHeight="1">
-      <c r="B29" s="135">
+      <c r="B29" s="169">
         <v>1</v>
       </c>
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="136">
+      <c r="D29" s="170">
         <v>5</v>
       </c>
       <c r="E29" s="36" t="s">
@@ -3648,9 +3656,9 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="30" customHeight="1">
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="170"/>
       <c r="E30" s="36" t="s">
         <v>57</v>
       </c>
@@ -3793,13 +3801,13 @@
       </c>
     </row>
     <row r="35" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="135">
+      <c r="B35" s="169">
         <v>5</v>
       </c>
-      <c r="C35" s="135" t="s">
+      <c r="C35" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="136">
+      <c r="D35" s="170">
         <v>12</v>
       </c>
       <c r="E35" s="36" t="s">
@@ -3834,9 +3842,9 @@
       </c>
     </row>
     <row r="36" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="136"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="36" t="s">
         <v>68</v>
       </c>
@@ -3869,9 +3877,9 @@
       </c>
     </row>
     <row r="37" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="136"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="36" t="s">
         <v>70</v>
       </c>
@@ -3960,10 +3968,10 @@
       </c>
     </row>
     <row r="40" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="134"/>
+      <c r="C40" s="164"/>
       <c r="D40" s="23">
         <v>80</v>
       </c>
@@ -4016,13 +4024,13 @@
       </c>
     </row>
     <row r="42" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B42" s="135">
+      <c r="B42" s="169">
         <v>1</v>
       </c>
-      <c r="C42" s="135" t="s">
+      <c r="C42" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="136">
+      <c r="D42" s="170">
         <v>10</v>
       </c>
       <c r="E42" s="36" t="s">
@@ -4057,9 +4065,9 @@
       </c>
     </row>
     <row r="43" spans="2:18" ht="30" customHeight="1">
-      <c r="B43" s="135"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="136"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="36" t="s">
         <v>79</v>
       </c>
@@ -4092,9 +4100,9 @@
       </c>
     </row>
     <row r="44" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="135"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="136"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="36" t="s">
         <v>82</v>
       </c>
@@ -4156,13 +4164,13 @@
       </c>
     </row>
     <row r="46" spans="2:18" ht="105.4" customHeight="1">
-      <c r="B46" s="135">
+      <c r="B46" s="169">
         <v>2</v>
       </c>
-      <c r="C46" s="135" t="s">
+      <c r="C46" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="136">
+      <c r="D46" s="170">
         <v>45</v>
       </c>
       <c r="E46" s="36" t="s">
@@ -4197,9 +4205,9 @@
       </c>
     </row>
     <row r="47" spans="2:18" ht="105.4" customHeight="1">
-      <c r="B47" s="135"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="136"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="36" t="s">
         <v>89</v>
       </c>
@@ -4302,13 +4310,13 @@
       </c>
     </row>
     <row r="50" spans="2:18" ht="244.7" customHeight="1">
-      <c r="B50" s="135">
+      <c r="B50" s="169">
         <v>4</v>
       </c>
-      <c r="C50" s="135" t="s">
+      <c r="C50" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="136">
+      <c r="D50" s="170">
         <v>10</v>
       </c>
       <c r="E50" s="36" t="s">
@@ -4343,9 +4351,9 @@
       </c>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="135"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="136"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="36" t="s">
         <v>101</v>
       </c>
@@ -4378,9 +4386,9 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="85.35" customHeight="1">
-      <c r="B52" s="135"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="136"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="36" t="s">
         <v>104</v>
       </c>
@@ -4413,10 +4421,10 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="160.69999999999999" customHeight="1">
-      <c r="B53" s="134" t="s">
+      <c r="B53" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="134"/>
+      <c r="C53" s="164"/>
       <c r="D53" s="23">
         <v>100</v>
       </c>
@@ -4673,105 +4681,105 @@
       <c r="Q60" s="37"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="78"/>
-      <c r="R61" s="78"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="163"/>
+      <c r="F61" s="163"/>
+      <c r="G61" s="163"/>
+      <c r="H61" s="163"/>
+      <c r="I61" s="163"/>
+      <c r="J61" s="163"/>
+      <c r="K61" s="163"/>
+      <c r="L61" s="163"/>
+      <c r="M61" s="163"/>
+      <c r="N61" s="163"/>
+      <c r="O61" s="163"/>
+      <c r="P61" s="163"/>
+      <c r="Q61" s="163"/>
+      <c r="R61" s="163"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="81" t="s">
+      <c r="B62" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="82" t="s">
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="165"/>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="J62" s="82"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="82"/>
-      <c r="P62" s="82"/>
-      <c r="Q62" s="82"/>
-      <c r="R62" s="82"/>
+      <c r="J62" s="166"/>
+      <c r="K62" s="166"/>
+      <c r="L62" s="166"/>
+      <c r="M62" s="166"/>
+      <c r="N62" s="166"/>
+      <c r="O62" s="166"/>
+      <c r="P62" s="166"/>
+      <c r="Q62" s="166"/>
+      <c r="R62" s="166"/>
     </row>
     <row r="63" spans="2:18" ht="15" customHeight="1">
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
+      <c r="B63" s="167"/>
+      <c r="C63" s="167"/>
+      <c r="D63" s="167"/>
+      <c r="E63" s="167"/>
+      <c r="F63" s="167"/>
+      <c r="G63" s="167"/>
+      <c r="H63" s="167"/>
+      <c r="I63" s="168"/>
+      <c r="J63" s="168"/>
+      <c r="K63" s="168"/>
+      <c r="L63" s="168"/>
+      <c r="M63" s="168"/>
+      <c r="N63" s="168"/>
+      <c r="O63" s="168"/>
+      <c r="P63" s="168"/>
+      <c r="Q63" s="168"/>
+      <c r="R63" s="168"/>
     </row>
     <row r="64" spans="2:18" ht="15" customHeight="1">
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="86"/>
-      <c r="L64" s="86"/>
-      <c r="M64" s="86"/>
-      <c r="N64" s="86"/>
-      <c r="O64" s="86"/>
-      <c r="P64" s="86"/>
-      <c r="Q64" s="86"/>
-      <c r="R64" s="86"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="159"/>
+      <c r="I64" s="160"/>
+      <c r="J64" s="160"/>
+      <c r="K64" s="160"/>
+      <c r="L64" s="160"/>
+      <c r="M64" s="160"/>
+      <c r="N64" s="160"/>
+      <c r="O64" s="160"/>
+      <c r="P64" s="160"/>
+      <c r="Q64" s="160"/>
+      <c r="R64" s="160"/>
     </row>
     <row r="65" spans="2:18" ht="15" customHeight="1">
-      <c r="B65" s="76"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
-      <c r="M65" s="77"/>
-      <c r="N65" s="77"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="77"/>
-      <c r="Q65" s="77"/>
-      <c r="R65" s="77"/>
+      <c r="B65" s="161"/>
+      <c r="C65" s="161"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="161"/>
+      <c r="F65" s="161"/>
+      <c r="G65" s="161"/>
+      <c r="H65" s="161"/>
+      <c r="I65" s="162"/>
+      <c r="J65" s="162"/>
+      <c r="K65" s="162"/>
+      <c r="L65" s="162"/>
+      <c r="M65" s="162"/>
+      <c r="N65" s="162"/>
+      <c r="O65" s="162"/>
+      <c r="P65" s="162"/>
+      <c r="Q65" s="162"/>
+      <c r="R65" s="162"/>
     </row>
     <row r="66" spans="2:18" ht="29.25" customHeight="1">
       <c r="B66" s="39"/>
@@ -4793,50 +4801,50 @@
       <c r="R66" s="41"/>
     </row>
     <row r="67" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="78"/>
-      <c r="N67" s="78"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="78"/>
-      <c r="R67" s="78"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
+      <c r="E67" s="163"/>
+      <c r="F67" s="163"/>
+      <c r="G67" s="163"/>
+      <c r="H67" s="163"/>
+      <c r="I67" s="163"/>
+      <c r="J67" s="163"/>
+      <c r="K67" s="163"/>
+      <c r="L67" s="163"/>
+      <c r="M67" s="163"/>
+      <c r="N67" s="163"/>
+      <c r="O67" s="163"/>
+      <c r="P67" s="163"/>
+      <c r="Q67" s="163"/>
+      <c r="R67" s="163"/>
     </row>
     <row r="68" spans="2:18" ht="28.5" customHeight="1">
-      <c r="B68" s="79" t="s">
+      <c r="B68" s="156" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="156"/>
       <c r="G68" s="42"/>
-      <c r="H68" s="80" t="s">
+      <c r="H68" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="79" t="s">
+      <c r="I68" s="157"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="157"/>
+      <c r="M68" s="156" t="s">
         <v>124</v>
       </c>
-      <c r="N68" s="79"/>
-      <c r="O68" s="79"/>
-      <c r="P68" s="79"/>
-      <c r="Q68" s="79"/>
-      <c r="R68" s="79"/>
+      <c r="N68" s="156"/>
+      <c r="O68" s="156"/>
+      <c r="P68" s="156"/>
+      <c r="Q68" s="156"/>
+      <c r="R68" s="156"/>
     </row>
     <row r="69" spans="2:18">
       <c r="B69" s="43" t="s">
@@ -4854,14 +4862,14 @@
       <c r="J69" s="44"/>
       <c r="K69" s="44"/>
       <c r="L69" s="45"/>
-      <c r="M69" s="73" t="s">
+      <c r="M69" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="N69" s="73"/>
-      <c r="O69" s="73"/>
-      <c r="P69" s="73"/>
-      <c r="Q69" s="73"/>
-      <c r="R69" s="73"/>
+      <c r="N69" s="158"/>
+      <c r="O69" s="158"/>
+      <c r="P69" s="158"/>
+      <c r="Q69" s="158"/>
+      <c r="R69" s="158"/>
     </row>
     <row r="70" spans="2:18" ht="15" customHeight="1">
       <c r="B70" s="47"/>
@@ -4875,109 +4883,106 @@
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="48"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="74"/>
-      <c r="O70" s="74"/>
-      <c r="P70" s="74"/>
-      <c r="Q70" s="74"/>
-      <c r="R70" s="74"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="154"/>
+      <c r="O70" s="154"/>
+      <c r="P70" s="154"/>
+      <c r="Q70" s="154"/>
+      <c r="R70" s="154"/>
     </row>
     <row r="71" spans="2:18" ht="15" customHeight="1">
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
+      <c r="C71" s="154"/>
+      <c r="D71" s="154"/>
+      <c r="E71" s="154"/>
+      <c r="F71" s="154"/>
       <c r="G71" s="49"/>
-      <c r="H71" s="74" t="s">
+      <c r="H71" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="I71" s="74"/>
-      <c r="J71" s="74"/>
-      <c r="K71" s="74"/>
-      <c r="L71" s="74"/>
-      <c r="M71" s="74" t="s">
+      <c r="I71" s="154"/>
+      <c r="J71" s="154"/>
+      <c r="K71" s="154"/>
+      <c r="L71" s="154"/>
+      <c r="M71" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="N71" s="74"/>
-      <c r="O71" s="74"/>
-      <c r="P71" s="74"/>
-      <c r="Q71" s="74"/>
-      <c r="R71" s="74"/>
+      <c r="N71" s="154"/>
+      <c r="O71" s="154"/>
+      <c r="P71" s="154"/>
+      <c r="Q71" s="154"/>
+      <c r="R71" s="154"/>
     </row>
     <row r="72" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
+      <c r="C72" s="155"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="155"/>
+      <c r="F72" s="155"/>
       <c r="G72" s="50"/>
-      <c r="H72" s="75" t="s">
+      <c r="H72" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="I72" s="75"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75" t="s">
+      <c r="I72" s="155"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="155"/>
+      <c r="L72" s="155"/>
+      <c r="M72" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="N72" s="75"/>
-      <c r="O72" s="75"/>
-      <c r="P72" s="75"/>
-      <c r="Q72" s="75"/>
-      <c r="R72" s="75"/>
+      <c r="N72" s="155"/>
+      <c r="O72" s="155"/>
+      <c r="P72" s="155"/>
+      <c r="Q72" s="155"/>
+      <c r="R72" s="155"/>
     </row>
     <row r="73" spans="2:18" ht="30" customHeight="1"/>
     <row r="74" spans="2:18" ht="31.5" customHeight="1"/>
     <row r="75" spans="2:18" ht="30.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="M71:R71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="M72:R72"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="I64:R64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="I65:R65"/>
-    <mergeCell ref="B67:R67"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B61:R61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="I62:R62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="I63:R63"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:N3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B24:R24"/>
@@ -4994,44 +4999,47 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="P25:P26"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:N3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B61:R61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="I62:R62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="I63:R63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="I64:R64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="I65:R65"/>
+    <mergeCell ref="B67:R67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="M71:R71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="M72:R72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/mock/Tempate01.xlsx
+++ b/mock/Tempate01.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5529FC0-3FC9-46AE-ACC6-4AEB98F5687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DC0FDE-CD27-4BB1-AA57-4C4513D32F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="990" windowWidth="26910" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="945" windowWidth="26910" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tempalte" sheetId="4" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1355,6 +1355,114 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,104 +1475,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1472,89 +1556,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2013,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D125A0-D8A8-4519-B166-29E66ADEE5DA}">
   <dimension ref="B1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2025,7 +2028,7 @@
     <col min="4" max="4" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" style="1" customWidth="1"/>
@@ -2041,304 +2044,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="26.25">
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="119" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120" t="s">
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
       <c r="R1" s="64"/>
       <c r="S1" s="64"/>
     </row>
     <row r="2" spans="2:19" ht="26.25">
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="120" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
       <c r="R2" s="64"/>
       <c r="S2" s="64"/>
     </row>
     <row r="3" spans="2:19" ht="26.25">
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="120" t="s">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
       <c r="R3" s="64"/>
       <c r="S3" s="64"/>
     </row>
     <row r="6" spans="2:19" ht="15">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="150" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="122" t="s">
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="124"/>
-      <c r="J7" s="121" t="s">
+      <c r="I7" s="152"/>
+      <c r="J7" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122" t="s">
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="122" t="s">
+      <c r="F8" s="151"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="124"/>
-      <c r="J8" s="121" t="s">
+      <c r="I8" s="152"/>
+      <c r="J8" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
     </row>
     <row r="10" spans="2:19" ht="15">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
     </row>
     <row r="11" spans="2:19" ht="22.5" customHeight="1">
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129" t="s">
+      <c r="E11" s="145"/>
+      <c r="F11" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="132" t="s">
+      <c r="C12" s="138"/>
+      <c r="D12" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="135" t="s">
+      <c r="C13" s="138"/>
+      <c r="D13" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="134" t="s">
+      <c r="C14" s="138"/>
+      <c r="D14" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="134" t="s">
+      <c r="C15" s="138"/>
+      <c r="D15" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="134" t="s">
+      <c r="C16" s="138"/>
+      <c r="D16" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
     </row>
     <row r="18" spans="2:18" ht="15">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
     </row>
     <row r="19" spans="2:18" ht="15">
       <c r="B19" s="51"/>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="138"/>
+      <c r="G19" s="141"/>
       <c r="H19" s="71"/>
       <c r="I19" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
       <c r="L19" s="52" t="s">
         <v>29</v>
       </c>
@@ -2351,10 +2354,10 @@
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="55"/>
       <c r="I20" s="67" t="s">
         <v>171</v>
@@ -2374,10 +2377,10 @@
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="55"/>
       <c r="I21" s="67" t="s">
         <v>172</v>
@@ -2397,10 +2400,10 @@
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
-      <c r="F22" s="139" t="s">
+      <c r="F22" s="142" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="55"/>
       <c r="I22" s="67" t="s">
         <v>173</v>
@@ -2420,10 +2423,10 @@
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="139" t="s">
+      <c r="F23" s="142" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="139"/>
+      <c r="G23" s="142"/>
       <c r="H23" s="55"/>
       <c r="I23" s="67" t="s">
         <v>174</v>
@@ -2443,10 +2446,10 @@
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
-      <c r="F24" s="139" t="s">
+      <c r="F24" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="55"/>
       <c r="I24" s="67" t="s">
         <v>175</v>
@@ -2460,10 +2463,10 @@
       <c r="M24" s="58"/>
     </row>
     <row r="25" spans="2:18" ht="15">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="137"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
       <c r="F25" s="65"/>
@@ -2482,87 +2485,87 @@
       <c r="M25" s="62"/>
     </row>
     <row r="27" spans="2:18" ht="15">
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
     </row>
     <row r="28" spans="2:18" ht="15">
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="144" t="s">
+      <c r="D28" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="141" t="s">
+      <c r="E28" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="141" t="s">
+      <c r="F28" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="141" t="s">
+      <c r="G28" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="141" t="s">
+      <c r="H28" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="141" t="s">
+      <c r="I28" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="141" t="s">
+      <c r="J28" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="141" t="s">
+      <c r="K28" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="147" t="s">
+      <c r="L28" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="149" t="s">
+      <c r="M28" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="149"/>
-      <c r="O28" s="149"/>
-      <c r="P28" s="150" t="s">
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="152" t="s">
+      <c r="Q28" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="152" t="s">
+      <c r="R28" s="133" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="60">
-      <c r="B29" s="141"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="148"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="129"/>
       <c r="M29" s="63" t="s">
         <v>48</v>
       </c>
@@ -2572,21 +2575,24 @@
       <c r="O29" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
     </row>
     <row r="30" spans="2:18" s="75" customFormat="1" ht="29.25" customHeight="1">
       <c r="B30" s="73" t="s">
         <v>176</v>
       </c>
       <c r="C30" s="73"/>
-      <c r="D30" s="181" t="s">
+      <c r="D30" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="74"/>
+      <c r="E30" s="184">
+        <f>SUM(I20:I24)</f>
+        <v>0</v>
+      </c>
       <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="G30" s="184"/>
       <c r="H30" s="74"/>
       <c r="I30" s="74"/>
       <c r="J30" s="74"/>
@@ -2596,7 +2602,7 @@
       <c r="N30" s="74"/>
       <c r="O30" s="74"/>
       <c r="P30" s="74"/>
-      <c r="Q30" s="181" t="s">
+      <c r="Q30" s="117" t="s">
         <v>181</v>
       </c>
       <c r="R30" s="74"/>
@@ -2608,7 +2614,7 @@
       <c r="C31" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="182" t="s">
+      <c r="D31" s="118" t="s">
         <v>178</v>
       </c>
       <c r="E31" s="77"/>
@@ -2623,7 +2629,7 @@
       <c r="N31" s="77"/>
       <c r="O31" s="77"/>
       <c r="P31" s="77"/>
-      <c r="Q31" s="182" t="s">
+      <c r="Q31" s="118" t="s">
         <v>179</v>
       </c>
       <c r="R31" s="77"/>
@@ -2635,13 +2641,13 @@
       <c r="C32" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="183" t="s">
+      <c r="D32" s="119" t="s">
         <v>130</v>
       </c>
       <c r="E32" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="183" t="s">
+      <c r="F32" s="119" t="s">
         <v>132</v>
       </c>
       <c r="G32" s="80"/>
@@ -2659,16 +2665,16 @@
         <v>136</v>
       </c>
       <c r="M32" s="80"/>
-      <c r="N32" s="183" t="s">
+      <c r="N32" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="O32" s="183" t="s">
+      <c r="O32" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="P32" s="183" t="s">
+      <c r="P32" s="119" t="s">
         <v>139</v>
       </c>
-      <c r="Q32" s="183" t="s">
+      <c r="Q32" s="119" t="s">
         <v>140</v>
       </c>
       <c r="R32" s="80"/>
@@ -2983,6 +2989,51 @@
     <row r="74" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:N3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="B27:R27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -2999,51 +3050,6 @@
     <mergeCell ref="P28:P29"/>
     <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="R28:R29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:N3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3086,286 +3092,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="119" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120" t="s">
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="120" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="120" t="s">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
     <row r="6" spans="2:19" ht="15" customHeight="1">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="122" t="s">
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="124"/>
-      <c r="J7" s="121" t="s">
+      <c r="I7" s="152"/>
+      <c r="J7" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122" t="s">
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="122" t="s">
+      <c r="F8" s="151"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="124"/>
-      <c r="J8" s="121" t="s">
+      <c r="I8" s="152"/>
+      <c r="J8" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
     </row>
     <row r="10" spans="2:19" ht="15" customHeight="1">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
     </row>
     <row r="11" spans="2:19" ht="22.5" customHeight="1">
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129" t="s">
+      <c r="E11" s="145"/>
+      <c r="F11" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="132" t="s">
+      <c r="C12" s="138"/>
+      <c r="D12" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="135" t="s">
+      <c r="C13" s="138"/>
+      <c r="D13" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="180" t="s">
+      <c r="C14" s="138"/>
+      <c r="D14" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="180"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="180" t="s">
+      <c r="C15" s="138"/>
+      <c r="D15" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
     </row>
     <row r="17" spans="2:18" ht="15">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="138" t="s">
+      <c r="F18" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="138"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
       <c r="L18" s="5" t="s">
         <v>29</v>
       </c>
@@ -3378,10 +3384,10 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="173">
+      <c r="F19" s="158">
         <v>90.915999999999997</v>
       </c>
-      <c r="G19" s="173"/>
+      <c r="G19" s="158"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9">
         <v>80</v>
@@ -3401,10 +3407,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="173">
+      <c r="F20" s="158">
         <v>71.3125</v>
       </c>
-      <c r="G20" s="173"/>
+      <c r="G20" s="158"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9">
         <v>20</v>
@@ -3424,10 +3430,10 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="173">
+      <c r="F21" s="158">
         <v>5</v>
       </c>
-      <c r="G21" s="173"/>
+      <c r="G21" s="158"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9">
         <v>10</v>
@@ -3441,10 +3447,10 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="2:18" ht="21.75" customHeight="1">
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="137"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
@@ -3464,87 +3470,87 @@
     </row>
     <row r="23" spans="2:18" ht="18.75" customHeight="1"/>
     <row r="24" spans="2:18" ht="21" customHeight="1">
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1">
-      <c r="B25" s="175" t="s">
+      <c r="B25" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="142" t="s">
+      <c r="E25" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="142" t="s">
+      <c r="F25" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="142" t="s">
+      <c r="G25" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="142" t="s">
+      <c r="H25" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="142" t="s">
+      <c r="I25" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="142" t="s">
+      <c r="J25" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="142" t="s">
+      <c r="K25" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="176" t="s">
+      <c r="L25" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="174" t="s">
+      <c r="M25" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="N25" s="174"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="178" t="s">
+      <c r="N25" s="159"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="171" t="s">
+      <c r="Q25" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="R25" s="171" t="s">
+      <c r="R25" s="165" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1">
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="177"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="162"/>
       <c r="M26" s="22" t="s">
         <v>48</v>
       </c>
@@ -3554,15 +3560,15 @@
       <c r="O26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="179"/>
-      <c r="Q26" s="172"/>
-      <c r="R26" s="172"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="166"/>
+      <c r="R26" s="166"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1">
-      <c r="B27" s="164" t="s">
+      <c r="B27" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="164"/>
+      <c r="C27" s="167"/>
       <c r="D27" s="23">
         <v>100</v>
       </c>
@@ -3615,13 +3621,13 @@
       </c>
     </row>
     <row r="29" spans="2:18" ht="60" customHeight="1">
-      <c r="B29" s="169">
+      <c r="B29" s="168">
         <v>1</v>
       </c>
-      <c r="C29" s="169" t="s">
+      <c r="C29" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="170">
+      <c r="D29" s="169">
         <v>5</v>
       </c>
       <c r="E29" s="36" t="s">
@@ -3656,9 +3662,9 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="30" customHeight="1">
-      <c r="B30" s="169"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="36" t="s">
         <v>57</v>
       </c>
@@ -3801,13 +3807,13 @@
       </c>
     </row>
     <row r="35" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="169">
+      <c r="B35" s="168">
         <v>5</v>
       </c>
-      <c r="C35" s="169" t="s">
+      <c r="C35" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="170">
+      <c r="D35" s="169">
         <v>12</v>
       </c>
       <c r="E35" s="36" t="s">
@@ -3842,9 +3848,9 @@
       </c>
     </row>
     <row r="36" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="170"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="36" t="s">
         <v>68</v>
       </c>
@@ -3877,9 +3883,9 @@
       </c>
     </row>
     <row r="37" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="36" t="s">
         <v>70</v>
       </c>
@@ -3968,10 +3974,10 @@
       </c>
     </row>
     <row r="40" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="164" t="s">
+      <c r="B40" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="164"/>
+      <c r="C40" s="167"/>
       <c r="D40" s="23">
         <v>80</v>
       </c>
@@ -4024,13 +4030,13 @@
       </c>
     </row>
     <row r="42" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B42" s="169">
+      <c r="B42" s="168">
         <v>1</v>
       </c>
-      <c r="C42" s="169" t="s">
+      <c r="C42" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="170">
+      <c r="D42" s="169">
         <v>10</v>
       </c>
       <c r="E42" s="36" t="s">
@@ -4065,9 +4071,9 @@
       </c>
     </row>
     <row r="43" spans="2:18" ht="30" customHeight="1">
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="36" t="s">
         <v>79</v>
       </c>
@@ -4100,9 +4106,9 @@
       </c>
     </row>
     <row r="44" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="36" t="s">
         <v>82</v>
       </c>
@@ -4164,13 +4170,13 @@
       </c>
     </row>
     <row r="46" spans="2:18" ht="105.4" customHeight="1">
-      <c r="B46" s="169">
+      <c r="B46" s="168">
         <v>2</v>
       </c>
-      <c r="C46" s="169" t="s">
+      <c r="C46" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="170">
+      <c r="D46" s="169">
         <v>45</v>
       </c>
       <c r="E46" s="36" t="s">
@@ -4205,9 +4211,9 @@
       </c>
     </row>
     <row r="47" spans="2:18" ht="105.4" customHeight="1">
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="36" t="s">
         <v>89</v>
       </c>
@@ -4310,13 +4316,13 @@
       </c>
     </row>
     <row r="50" spans="2:18" ht="244.7" customHeight="1">
-      <c r="B50" s="169">
+      <c r="B50" s="168">
         <v>4</v>
       </c>
-      <c r="C50" s="169" t="s">
+      <c r="C50" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="170">
+      <c r="D50" s="169">
         <v>10</v>
       </c>
       <c r="E50" s="36" t="s">
@@ -4351,9 +4357,9 @@
       </c>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="36" t="s">
         <v>101</v>
       </c>
@@ -4386,9 +4392,9 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="85.35" customHeight="1">
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="36" t="s">
         <v>104</v>
       </c>
@@ -4421,10 +4427,10 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="160.69999999999999" customHeight="1">
-      <c r="B53" s="164" t="s">
+      <c r="B53" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="164"/>
+      <c r="C53" s="167"/>
       <c r="D53" s="23">
         <v>100</v>
       </c>
@@ -4681,105 +4687,105 @@
       <c r="Q60" s="37"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="163" t="s">
+      <c r="B61" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
-      <c r="E61" s="163"/>
-      <c r="F61" s="163"/>
-      <c r="G61" s="163"/>
-      <c r="H61" s="163"/>
-      <c r="I61" s="163"/>
-      <c r="J61" s="163"/>
-      <c r="K61" s="163"/>
-      <c r="L61" s="163"/>
-      <c r="M61" s="163"/>
-      <c r="N61" s="163"/>
-      <c r="O61" s="163"/>
-      <c r="P61" s="163"/>
-      <c r="Q61" s="163"/>
-      <c r="R61" s="163"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
+      <c r="E61" s="170"/>
+      <c r="F61" s="170"/>
+      <c r="G61" s="170"/>
+      <c r="H61" s="170"/>
+      <c r="I61" s="170"/>
+      <c r="J61" s="170"/>
+      <c r="K61" s="170"/>
+      <c r="L61" s="170"/>
+      <c r="M61" s="170"/>
+      <c r="N61" s="170"/>
+      <c r="O61" s="170"/>
+      <c r="P61" s="170"/>
+      <c r="Q61" s="170"/>
+      <c r="R61" s="170"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="165" t="s">
+      <c r="B62" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="166" t="s">
+      <c r="C62" s="171"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="171"/>
+      <c r="F62" s="171"/>
+      <c r="G62" s="171"/>
+      <c r="H62" s="171"/>
+      <c r="I62" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="J62" s="166"/>
-      <c r="K62" s="166"/>
-      <c r="L62" s="166"/>
-      <c r="M62" s="166"/>
-      <c r="N62" s="166"/>
-      <c r="O62" s="166"/>
-      <c r="P62" s="166"/>
-      <c r="Q62" s="166"/>
-      <c r="R62" s="166"/>
+      <c r="J62" s="172"/>
+      <c r="K62" s="172"/>
+      <c r="L62" s="172"/>
+      <c r="M62" s="172"/>
+      <c r="N62" s="172"/>
+      <c r="O62" s="172"/>
+      <c r="P62" s="172"/>
+      <c r="Q62" s="172"/>
+      <c r="R62" s="172"/>
     </row>
     <row r="63" spans="2:18" ht="15" customHeight="1">
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
-      <c r="E63" s="167"/>
-      <c r="F63" s="167"/>
-      <c r="G63" s="167"/>
-      <c r="H63" s="167"/>
-      <c r="I63" s="168"/>
-      <c r="J63" s="168"/>
-      <c r="K63" s="168"/>
-      <c r="L63" s="168"/>
-      <c r="M63" s="168"/>
-      <c r="N63" s="168"/>
-      <c r="O63" s="168"/>
-      <c r="P63" s="168"/>
-      <c r="Q63" s="168"/>
-      <c r="R63" s="168"/>
+      <c r="B63" s="173"/>
+      <c r="C63" s="173"/>
+      <c r="D63" s="173"/>
+      <c r="E63" s="173"/>
+      <c r="F63" s="173"/>
+      <c r="G63" s="173"/>
+      <c r="H63" s="173"/>
+      <c r="I63" s="174"/>
+      <c r="J63" s="174"/>
+      <c r="K63" s="174"/>
+      <c r="L63" s="174"/>
+      <c r="M63" s="174"/>
+      <c r="N63" s="174"/>
+      <c r="O63" s="174"/>
+      <c r="P63" s="174"/>
+      <c r="Q63" s="174"/>
+      <c r="R63" s="174"/>
     </row>
     <row r="64" spans="2:18" ht="15" customHeight="1">
-      <c r="B64" s="159"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="159"/>
-      <c r="G64" s="159"/>
-      <c r="H64" s="159"/>
-      <c r="I64" s="160"/>
-      <c r="J64" s="160"/>
-      <c r="K64" s="160"/>
-      <c r="L64" s="160"/>
-      <c r="M64" s="160"/>
-      <c r="N64" s="160"/>
-      <c r="O64" s="160"/>
-      <c r="P64" s="160"/>
-      <c r="Q64" s="160"/>
-      <c r="R64" s="160"/>
+      <c r="B64" s="175"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="175"/>
+      <c r="E64" s="175"/>
+      <c r="F64" s="175"/>
+      <c r="G64" s="175"/>
+      <c r="H64" s="175"/>
+      <c r="I64" s="176"/>
+      <c r="J64" s="176"/>
+      <c r="K64" s="176"/>
+      <c r="L64" s="176"/>
+      <c r="M64" s="176"/>
+      <c r="N64" s="176"/>
+      <c r="O64" s="176"/>
+      <c r="P64" s="176"/>
+      <c r="Q64" s="176"/>
+      <c r="R64" s="176"/>
     </row>
     <row r="65" spans="2:18" ht="15" customHeight="1">
-      <c r="B65" s="161"/>
-      <c r="C65" s="161"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="161"/>
-      <c r="F65" s="161"/>
-      <c r="G65" s="161"/>
-      <c r="H65" s="161"/>
-      <c r="I65" s="162"/>
-      <c r="J65" s="162"/>
-      <c r="K65" s="162"/>
-      <c r="L65" s="162"/>
-      <c r="M65" s="162"/>
-      <c r="N65" s="162"/>
-      <c r="O65" s="162"/>
-      <c r="P65" s="162"/>
-      <c r="Q65" s="162"/>
-      <c r="R65" s="162"/>
+      <c r="B65" s="177"/>
+      <c r="C65" s="177"/>
+      <c r="D65" s="177"/>
+      <c r="E65" s="177"/>
+      <c r="F65" s="177"/>
+      <c r="G65" s="177"/>
+      <c r="H65" s="177"/>
+      <c r="I65" s="178"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="178"/>
+      <c r="M65" s="178"/>
+      <c r="N65" s="178"/>
+      <c r="O65" s="178"/>
+      <c r="P65" s="178"/>
+      <c r="Q65" s="178"/>
+      <c r="R65" s="178"/>
     </row>
     <row r="66" spans="2:18" ht="29.25" customHeight="1">
       <c r="B66" s="39"/>
@@ -4801,50 +4807,50 @@
       <c r="R66" s="41"/>
     </row>
     <row r="67" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B67" s="163" t="s">
+      <c r="B67" s="170" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
-      <c r="E67" s="163"/>
-      <c r="F67" s="163"/>
-      <c r="G67" s="163"/>
-      <c r="H67" s="163"/>
-      <c r="I67" s="163"/>
-      <c r="J67" s="163"/>
-      <c r="K67" s="163"/>
-      <c r="L67" s="163"/>
-      <c r="M67" s="163"/>
-      <c r="N67" s="163"/>
-      <c r="O67" s="163"/>
-      <c r="P67" s="163"/>
-      <c r="Q67" s="163"/>
-      <c r="R67" s="163"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="170"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="170"/>
+      <c r="J67" s="170"/>
+      <c r="K67" s="170"/>
+      <c r="L67" s="170"/>
+      <c r="M67" s="170"/>
+      <c r="N67" s="170"/>
+      <c r="O67" s="170"/>
+      <c r="P67" s="170"/>
+      <c r="Q67" s="170"/>
+      <c r="R67" s="170"/>
     </row>
     <row r="68" spans="2:18" ht="28.5" customHeight="1">
-      <c r="B68" s="156" t="s">
+      <c r="B68" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="156"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="156"/>
-      <c r="F68" s="156"/>
+      <c r="C68" s="179"/>
+      <c r="D68" s="179"/>
+      <c r="E68" s="179"/>
+      <c r="F68" s="179"/>
       <c r="G68" s="42"/>
-      <c r="H68" s="157" t="s">
+      <c r="H68" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="I68" s="157"/>
-      <c r="J68" s="157"/>
-      <c r="K68" s="157"/>
-      <c r="L68" s="157"/>
-      <c r="M68" s="156" t="s">
+      <c r="I68" s="180"/>
+      <c r="J68" s="180"/>
+      <c r="K68" s="180"/>
+      <c r="L68" s="180"/>
+      <c r="M68" s="179" t="s">
         <v>124</v>
       </c>
-      <c r="N68" s="156"/>
-      <c r="O68" s="156"/>
-      <c r="P68" s="156"/>
-      <c r="Q68" s="156"/>
-      <c r="R68" s="156"/>
+      <c r="N68" s="179"/>
+      <c r="O68" s="179"/>
+      <c r="P68" s="179"/>
+      <c r="Q68" s="179"/>
+      <c r="R68" s="179"/>
     </row>
     <row r="69" spans="2:18">
       <c r="B69" s="43" t="s">
@@ -4862,14 +4868,14 @@
       <c r="J69" s="44"/>
       <c r="K69" s="44"/>
       <c r="L69" s="45"/>
-      <c r="M69" s="158" t="s">
+      <c r="M69" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="N69" s="158"/>
-      <c r="O69" s="158"/>
-      <c r="P69" s="158"/>
-      <c r="Q69" s="158"/>
-      <c r="R69" s="158"/>
+      <c r="N69" s="181"/>
+      <c r="O69" s="181"/>
+      <c r="P69" s="181"/>
+      <c r="Q69" s="181"/>
+      <c r="R69" s="181"/>
     </row>
     <row r="70" spans="2:18" ht="15" customHeight="1">
       <c r="B70" s="47"/>
@@ -4883,106 +4889,109 @@
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="48"/>
-      <c r="M70" s="154"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="154"/>
-      <c r="P70" s="154"/>
-      <c r="Q70" s="154"/>
-      <c r="R70" s="154"/>
+      <c r="M70" s="182"/>
+      <c r="N70" s="182"/>
+      <c r="O70" s="182"/>
+      <c r="P70" s="182"/>
+      <c r="Q70" s="182"/>
+      <c r="R70" s="182"/>
     </row>
     <row r="71" spans="2:18" ht="15" customHeight="1">
-      <c r="B71" s="154" t="s">
+      <c r="B71" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="154"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
+      <c r="C71" s="182"/>
+      <c r="D71" s="182"/>
+      <c r="E71" s="182"/>
+      <c r="F71" s="182"/>
       <c r="G71" s="49"/>
-      <c r="H71" s="154" t="s">
+      <c r="H71" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="I71" s="154"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="154"/>
-      <c r="L71" s="154"/>
-      <c r="M71" s="154" t="s">
+      <c r="I71" s="182"/>
+      <c r="J71" s="182"/>
+      <c r="K71" s="182"/>
+      <c r="L71" s="182"/>
+      <c r="M71" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="N71" s="154"/>
-      <c r="O71" s="154"/>
-      <c r="P71" s="154"/>
-      <c r="Q71" s="154"/>
-      <c r="R71" s="154"/>
+      <c r="N71" s="182"/>
+      <c r="O71" s="182"/>
+      <c r="P71" s="182"/>
+      <c r="Q71" s="182"/>
+      <c r="R71" s="182"/>
     </row>
     <row r="72" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B72" s="155" t="s">
+      <c r="B72" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="155"/>
-      <c r="D72" s="155"/>
-      <c r="E72" s="155"/>
-      <c r="F72" s="155"/>
+      <c r="C72" s="183"/>
+      <c r="D72" s="183"/>
+      <c r="E72" s="183"/>
+      <c r="F72" s="183"/>
       <c r="G72" s="50"/>
-      <c r="H72" s="155" t="s">
+      <c r="H72" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="I72" s="155"/>
-      <c r="J72" s="155"/>
-      <c r="K72" s="155"/>
-      <c r="L72" s="155"/>
-      <c r="M72" s="155" t="s">
+      <c r="I72" s="183"/>
+      <c r="J72" s="183"/>
+      <c r="K72" s="183"/>
+      <c r="L72" s="183"/>
+      <c r="M72" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="N72" s="155"/>
-      <c r="O72" s="155"/>
-      <c r="P72" s="155"/>
-      <c r="Q72" s="155"/>
-      <c r="R72" s="155"/>
+      <c r="N72" s="183"/>
+      <c r="O72" s="183"/>
+      <c r="P72" s="183"/>
+      <c r="Q72" s="183"/>
+      <c r="R72" s="183"/>
     </row>
     <row r="73" spans="2:18" ht="30" customHeight="1"/>
     <row r="74" spans="2:18" ht="31.5" customHeight="1"/>
     <row r="75" spans="2:18" ht="30.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:N3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="M71:R71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="I64:R64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="I65:R65"/>
+    <mergeCell ref="B67:R67"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B61:R61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="I62:R62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="I63:R63"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B24:R24"/>
@@ -4999,47 +5008,44 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B61:R61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="I62:R62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="I63:R63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="I64:R64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="I65:R65"/>
-    <mergeCell ref="B67:R67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="M71:R71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:N3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
